--- a/data/ploidy/metadata/ploidy_metadata.xlsx
+++ b/data/ploidy/metadata/ploidy_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vims0-my.sharepoint.com/personal/walton_vims_edu/Documents/CSALT Data/FARMS/Resazurin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/ploidy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{3036D9D6-F3FB-1E49-8239-47E08A9D8EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A3A3C8-2736-0E43-AD64-A0FC4C92A91A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB37F62-C476-C54C-B7E6-7C79190CA48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="780" windowWidth="23720" windowHeight="19940" xr2:uid="{9506B5CE-A628-164C-A7D7-A7FBD8EB9181}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="28160" windowHeight="17760" xr2:uid="{9506B5CE-A628-164C-A7D7-A7FBD8EB9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="48">
   <si>
     <t>date</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>ploidy</t>
-  </si>
-  <si>
-    <t>type = "blank" or "sample"</t>
   </si>
   <si>
     <t>HNRY</t>
@@ -183,9 +180,6 @@
   </si>
   <si>
     <t>plate24</t>
-  </si>
-  <si>
-    <t>Left empty</t>
   </si>
 </sst>
 </file>
@@ -572,14 +566,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC4D201-160D-7744-A296-617284EC138C}">
-  <dimension ref="A1:H1729"/>
+  <dimension ref="A1:H1727"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="G292" sqref="G292"/>
+    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="164" workbookViewId="0">
+      <selection activeCell="G282" sqref="G282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -607,8 +602,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>45882</v>
+      <c r="A2">
+        <v>20250813</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -617,21 +612,18 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>45882</v>
+      <c r="A3">
+        <v>20250813</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -640,18 +632,18 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>45882</v>
+      <c r="A4">
+        <v>20250813</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -660,18 +652,18 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>45882</v>
+      <c r="A5">
+        <v>20250813</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -680,18 +672,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>45882</v>
+      <c r="A6">
+        <v>20250813</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -700,18 +692,18 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>45882</v>
+      <c r="A7">
+        <v>20250813</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -720,18 +712,18 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>45882</v>
+      <c r="A8">
+        <v>20250813</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -740,18 +732,18 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>45882</v>
+      <c r="A9">
+        <v>20250813</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -760,18 +752,18 @@
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>45882</v>
+      <c r="A10">
+        <v>20250813</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -780,18 +772,18 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>45882</v>
+      <c r="A11">
+        <v>20250813</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -800,18 +792,18 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>45882</v>
+      <c r="A12">
+        <v>20250813</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -820,18 +812,18 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>45882</v>
+      <c r="A13">
+        <v>20250813</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -840,5514 +832,5460 @@
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>45882</v>
+      <c r="A14">
+        <v>20250813</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>45882</v>
+      <c r="A15">
+        <v>20250813</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>45882</v>
+      <c r="A16">
+        <v>20250813</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>45882</v>
+      <c r="A17">
+        <v>20250813</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>45882</v>
+      <c r="A18">
+        <v>20250813</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>45882</v>
+      <c r="A19">
+        <v>20250813</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>45882</v>
+      <c r="A20">
+        <v>20250813</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>45882</v>
+      <c r="A21">
+        <v>20250813</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>45882</v>
+      <c r="A22">
+        <v>20250813</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>45882</v>
+      <c r="A23">
+        <v>20250813</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>45882</v>
+      <c r="A24">
+        <v>20250813</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>45882</v>
+      <c r="A25">
+        <v>20250813</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>45882</v>
+      <c r="A26">
+        <v>20250813</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>45882</v>
+      <c r="A27">
+        <v>20250813</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20250813</v>
+      </c>
+      <c r="B28" t="s">
         <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>45882</v>
+      <c r="A29">
+        <v>20250813</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20250813</v>
+      </c>
+      <c r="B30" t="s">
         <v>25</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>45882</v>
+      <c r="A31">
+        <v>20250813</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20250813</v>
+      </c>
+      <c r="B32" t="s">
         <v>25</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>45882</v>
+      <c r="A33">
+        <v>20250813</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20250813</v>
+      </c>
+      <c r="B34" t="s">
         <v>25</v>
-      </c>
-      <c r="F33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>45882</v>
+      <c r="A35">
+        <v>20250813</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20250813</v>
+      </c>
+      <c r="B36" t="s">
         <v>25</v>
-      </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>45882</v>
+      <c r="A37">
+        <v>20250813</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>45882</v>
+      <c r="A38">
+        <v>20250813</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>45882</v>
+      <c r="A39">
+        <v>20250813</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>45882</v>
+      <c r="A40">
+        <v>20250813</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>45882</v>
+      <c r="A41">
+        <v>20250813</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>45882</v>
+      <c r="A42">
+        <v>20250813</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>45882</v>
+      <c r="A43">
+        <v>20250813</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>45882</v>
+      <c r="A44">
+        <v>20250813</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>45882</v>
+      <c r="A45">
+        <v>20250813</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>45882</v>
+      <c r="A46">
+        <v>20250813</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>45882</v>
+      <c r="A47">
+        <v>20250813</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>45882</v>
+      <c r="A48">
+        <v>20250813</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>45882</v>
+      <c r="A49">
+        <v>20250813</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>45882</v>
+      <c r="A50">
+        <v>20250813</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>45882</v>
+      <c r="A51">
+        <v>20250813</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>45882</v>
+      <c r="A52">
+        <v>20250813</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>45882</v>
+      <c r="A53">
+        <v>20250813</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>45882</v>
+      <c r="A54">
+        <v>20250813</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>45882</v>
+      <c r="A55">
+        <v>20250813</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>45882</v>
+      <c r="A56">
+        <v>20250813</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>45882</v>
+      <c r="A57">
+        <v>20250813</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>45882</v>
+      <c r="A58">
+        <v>20250813</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>45882</v>
+      <c r="A59">
+        <v>20250813</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>45882</v>
+      <c r="A60">
+        <v>20250813</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>45882</v>
+      <c r="A61">
+        <v>20250813</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>45882</v>
+      <c r="A62">
+        <v>20250813</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>45882</v>
+      <c r="A63">
+        <v>20250813</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>45882</v>
+      <c r="A64">
+        <v>20250813</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>45882</v>
+      <c r="A65">
+        <v>20250813</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>45882</v>
+      <c r="A66">
+        <v>20250813</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>45882</v>
+      <c r="A67">
+        <v>20250813</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>45882</v>
+      <c r="A68">
+        <v>20250813</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>45882</v>
+      <c r="A69">
+        <v>20250813</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>45882</v>
+      <c r="A70">
+        <v>20250813</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>45882</v>
+      <c r="A71">
+        <v>20250813</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>45882</v>
+      <c r="A72">
+        <v>20250813</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>45882</v>
+      <c r="A73">
+        <v>20250813</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>45882</v>
+      <c r="A74">
+        <v>20250813</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>45882</v>
+      <c r="A75">
+        <v>20250813</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>45882</v>
+      <c r="A76">
+        <v>20250813</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>45882</v>
+      <c r="A77">
+        <v>20250813</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>45882</v>
+      <c r="A78">
+        <v>20250813</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>45882</v>
+      <c r="A79">
+        <v>20250813</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>45882</v>
+      <c r="A80">
+        <v>20250813</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>45882</v>
+      <c r="A81">
+        <v>20250813</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>45882</v>
+      <c r="A82">
+        <v>20250813</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>45882</v>
+      <c r="A83">
+        <v>20250813</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>45882</v>
+      <c r="A84">
+        <v>20250813</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>45882</v>
+      <c r="A85">
+        <v>20250813</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>45882</v>
+      <c r="A86">
+        <v>20250813</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>45882</v>
+      <c r="A87">
+        <v>20250813</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>45882</v>
+      <c r="A88">
+        <v>20250813</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>45882</v>
+      <c r="A89">
+        <v>20250813</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>45882</v>
+      <c r="A90">
+        <v>20250813</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>45882</v>
+      <c r="A91">
+        <v>20250813</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>45882</v>
+      <c r="A92">
+        <v>20250813</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>45882</v>
+      <c r="A93">
+        <v>20250813</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>45882</v>
+      <c r="A94">
+        <v>20250813</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>45882</v>
+      <c r="A95">
+        <v>20250813</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>45882</v>
+      <c r="A96">
+        <v>20250813</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>45882</v>
+      <c r="A97">
+        <v>20250813</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
-        <v>45882</v>
+      <c r="A98">
+        <v>20250813</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>45882</v>
+      <c r="A99">
+        <v>20250813</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
-        <v>45882</v>
+      <c r="A100">
+        <v>20250813</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
-        <v>45882</v>
+      <c r="A101">
+        <v>20250813</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
-        <v>45882</v>
+      <c r="A102">
+        <v>20250813</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
-        <v>45882</v>
+      <c r="A103">
+        <v>20250813</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>45882</v>
+      <c r="A104">
+        <v>20250813</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
-        <v>45882</v>
+      <c r="A105">
+        <v>20250813</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>45882</v>
+      <c r="A106">
+        <v>20250813</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
-        <v>45882</v>
+      <c r="A107">
+        <v>20250813</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
-        <v>45882</v>
+      <c r="A108">
+        <v>20250813</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>45882</v>
+      <c r="A109">
+        <v>20250813</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
-        <v>45882</v>
+      <c r="A110">
+        <v>20250813</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
-        <v>45882</v>
+      <c r="A111">
+        <v>20250813</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
-        <v>45882</v>
+      <c r="A112">
+        <v>20250813</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
-        <v>45882</v>
+      <c r="A113">
+        <v>20250813</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
-        <v>45882</v>
+      <c r="A114">
+        <v>20250813</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>45882</v>
+      <c r="A115">
+        <v>20250813</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>45882</v>
+      <c r="A116">
+        <v>20250813</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>45882</v>
+      <c r="A117">
+        <v>20250813</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>45882</v>
+      <c r="A118">
+        <v>20250813</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
-        <v>45882</v>
+      <c r="A119">
+        <v>20250813</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <v>45882</v>
+      <c r="A120">
+        <v>20250813</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>45882</v>
+      <c r="A121">
+        <v>20250813</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>45882</v>
+      <c r="A122">
+        <v>20250813</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>45882</v>
+      <c r="A123">
+        <v>20250813</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>45882</v>
+      <c r="A124">
+        <v>20250813</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>45882</v>
+      <c r="A125">
+        <v>20250813</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>45882</v>
+      <c r="A126">
+        <v>20250813</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
-        <v>45882</v>
+      <c r="A127">
+        <v>20250813</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>45882</v>
+      <c r="A128">
+        <v>20250813</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
-        <v>45882</v>
+      <c r="A129">
+        <v>20250813</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>45882</v>
+      <c r="A130">
+        <v>20250813</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>45882</v>
+      <c r="A131">
+        <v>20250813</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>45882</v>
+      <c r="A132">
+        <v>20250813</v>
       </c>
       <c r="B132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>45882</v>
+      <c r="A133">
+        <v>20250813</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>45882</v>
+      <c r="A134">
+        <v>20250813</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>45882</v>
+      <c r="A135">
+        <v>20250813</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
-        <v>45882</v>
+      <c r="A136">
+        <v>20250813</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>45882</v>
+      <c r="A137">
+        <v>20250813</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E137" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>45882</v>
+      <c r="A138">
+        <v>20250813</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>45882</v>
+      <c r="A139">
+        <v>20250813</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C139" t="s">
         <v>10</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>45882</v>
+      <c r="A140">
+        <v>20250813</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>45882</v>
+      <c r="A141">
+        <v>20250813</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E141" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>45882</v>
+      <c r="A142">
+        <v>20250813</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>45882</v>
+      <c r="A143">
+        <v>20250813</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>45882</v>
+      <c r="A144">
+        <v>20250813</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>45882</v>
+      <c r="A145">
+        <v>20250813</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C145" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>45882</v>
+      <c r="A146">
+        <v>20250813</v>
       </c>
       <c r="B146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E146" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>45882</v>
+      <c r="A147">
+        <v>20250813</v>
       </c>
       <c r="B147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
-        <v>45882</v>
+      <c r="A148">
+        <v>20250813</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E148" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
-        <v>45882</v>
+      <c r="A149">
+        <v>20250813</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
-        <v>45882</v>
+      <c r="A150">
+        <v>20250813</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E150" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
-        <v>45882</v>
+      <c r="A151">
+        <v>20250813</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
-        <v>45882</v>
+      <c r="A152">
+        <v>20250813</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E152" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>45882</v>
+      <c r="A153">
+        <v>20250813</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C153" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>45882</v>
+      <c r="A154">
+        <v>20250813</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C154" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
-        <v>45882</v>
+      <c r="A155">
+        <v>20250813</v>
       </c>
       <c r="B155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
-        <v>45882</v>
+      <c r="A156">
+        <v>20250813</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
-        <v>45882</v>
+      <c r="A157">
+        <v>20250813</v>
       </c>
       <c r="B157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C157" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
-        <v>45882</v>
+      <c r="A158">
+        <v>20250813</v>
       </c>
       <c r="B158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
-        <v>45882</v>
+      <c r="A159">
+        <v>20250813</v>
       </c>
       <c r="B159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>45882</v>
+      <c r="A160">
+        <v>20250813</v>
       </c>
       <c r="B160" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
-        <v>45882</v>
+      <c r="A161">
+        <v>20250813</v>
       </c>
       <c r="B161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
-        <v>45882</v>
+      <c r="A162">
+        <v>20250813</v>
       </c>
       <c r="B162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C162" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="2">
-        <v>45882</v>
+      <c r="A163">
+        <v>20250813</v>
       </c>
       <c r="B163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C163" t="s">
         <v>10</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
-        <v>45882</v>
+      <c r="A164">
+        <v>20250813</v>
       </c>
       <c r="B164" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="2">
-        <v>45882</v>
+      <c r="A165">
+        <v>20250813</v>
       </c>
       <c r="B165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C165" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F165" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
-        <v>45882</v>
+      <c r="A166">
+        <v>20250813</v>
       </c>
       <c r="B166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C166" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
-        <v>45882</v>
+      <c r="A167">
+        <v>20250813</v>
       </c>
       <c r="B167" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C167" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F167" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="2">
-        <v>45882</v>
+      <c r="A168">
+        <v>20250813</v>
       </c>
       <c r="B168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E168" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
-        <v>45882</v>
+      <c r="A169">
+        <v>20250813</v>
       </c>
       <c r="B169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C169" t="s">
         <v>16</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="2">
-        <v>45882</v>
+      <c r="A170">
+        <v>20250813</v>
       </c>
       <c r="B170" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="2">
-        <v>45882</v>
+      <c r="A171">
+        <v>20250813</v>
       </c>
       <c r="B171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
-        <v>45882</v>
+      <c r="A172">
+        <v>20250813</v>
       </c>
       <c r="B172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F172" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
-        <v>45882</v>
+      <c r="A173">
+        <v>20250813</v>
       </c>
       <c r="B173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C173" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
-        <v>45882</v>
+      <c r="A174">
+        <v>20250813</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="2">
-        <v>45882</v>
+      <c r="A175">
+        <v>20250813</v>
       </c>
       <c r="B175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C175" t="s">
         <v>10</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F175" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
-        <v>45882</v>
+      <c r="A176">
+        <v>20250813</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C176" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="2">
-        <v>45882</v>
+      <c r="A177">
+        <v>20250813</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F177" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
-        <v>45882</v>
+      <c r="A178">
+        <v>20250813</v>
       </c>
       <c r="B178" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="2">
-        <v>45882</v>
+      <c r="A179">
+        <v>20250813</v>
       </c>
       <c r="B179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C179" t="s">
         <v>15</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F179" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>45882</v>
+      <c r="A180">
+        <v>20250813</v>
       </c>
       <c r="B180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C180" t="s">
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="2">
-        <v>45882</v>
+      <c r="A181">
+        <v>20250813</v>
       </c>
       <c r="B181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>45882</v>
+      <c r="A182">
+        <v>20250813</v>
       </c>
       <c r="B182" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F182" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="2">
-        <v>45882</v>
+      <c r="A183">
+        <v>20250813</v>
       </c>
       <c r="B183" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E183" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F183" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="2">
-        <v>45882</v>
+      <c r="A184">
+        <v>20250813</v>
       </c>
       <c r="B184" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="2">
-        <v>45882</v>
+      <c r="A185">
+        <v>20250813</v>
       </c>
       <c r="B185" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C185" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F185" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
-        <v>45882</v>
+      <c r="A186">
+        <v>20250813</v>
       </c>
       <c r="B186" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
-        <v>45882</v>
+      <c r="A187">
+        <v>20250813</v>
       </c>
       <c r="B187" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C187" t="s">
         <v>10</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F187" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="2">
-        <v>45882</v>
+      <c r="A188">
+        <v>20250813</v>
       </c>
       <c r="B188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C188" t="s">
         <v>11</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F188" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="2">
-        <v>45882</v>
+      <c r="A189">
+        <v>20250813</v>
       </c>
       <c r="B189" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E189" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F189" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="2">
-        <v>45882</v>
+      <c r="A190">
+        <v>20250813</v>
       </c>
       <c r="B190" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F190" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="2">
-        <v>45882</v>
+      <c r="A191">
+        <v>20250813</v>
       </c>
       <c r="B191" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C191" t="s">
         <v>15</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E191" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F191" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="2">
-        <v>45882</v>
+      <c r="A192">
+        <v>20250813</v>
       </c>
       <c r="B192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F192" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="2">
-        <v>45882</v>
+      <c r="A193">
+        <v>20250813</v>
       </c>
       <c r="B193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C193" t="s">
         <v>16</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="2">
-        <v>45882</v>
+      <c r="A194">
+        <v>20250813</v>
       </c>
       <c r="B194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E194" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F194" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="2">
-        <v>45882</v>
+      <c r="A195">
+        <v>20250813</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F195" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="2">
-        <v>45882</v>
+      <c r="A196">
+        <v>20250813</v>
       </c>
       <c r="B196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F196" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="2">
-        <v>45882</v>
+      <c r="A197">
+        <v>20250813</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C197" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F197" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="2">
-        <v>45882</v>
+      <c r="A198">
+        <v>20250813</v>
       </c>
       <c r="B198" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="2">
-        <v>45882</v>
+      <c r="A199">
+        <v>20250813</v>
       </c>
       <c r="B199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C199" t="s">
         <v>10</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F199" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="2">
-        <v>45882</v>
+      <c r="A200">
+        <v>20250813</v>
       </c>
       <c r="B200" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C200" t="s">
         <v>11</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E200" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F200" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="2">
-        <v>45882</v>
+      <c r="A201">
+        <v>20250813</v>
       </c>
       <c r="B201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C201" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F201" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="2">
-        <v>45882</v>
+      <c r="A202">
+        <v>20250813</v>
       </c>
       <c r="B202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E202" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F202" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="2">
-        <v>45882</v>
+      <c r="A203">
+        <v>20250813</v>
       </c>
       <c r="B203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C203" t="s">
         <v>15</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E203" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F203" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="2">
-        <v>45882</v>
+      <c r="A204">
+        <v>20250813</v>
       </c>
       <c r="B204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F204" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="2">
-        <v>45882</v>
+      <c r="A205">
+        <v>20250813</v>
       </c>
       <c r="B205" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C205" t="s">
         <v>16</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F205" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="2">
-        <v>45882</v>
+      <c r="A206">
+        <v>20250813</v>
       </c>
       <c r="B206" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F206" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="2">
-        <v>45882</v>
+      <c r="A207">
+        <v>20250813</v>
       </c>
       <c r="B207" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E207" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F207" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="2">
-        <v>45882</v>
+      <c r="A208">
+        <v>20250813</v>
       </c>
       <c r="B208" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F208" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="2">
-        <v>45882</v>
+      <c r="A209">
+        <v>20250813</v>
       </c>
       <c r="B209" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C209" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E209" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F209" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="2">
-        <v>45882</v>
+      <c r="A210">
+        <v>20250813</v>
       </c>
       <c r="B210" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C210" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E210" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="2">
-        <v>45882</v>
+      <c r="A211">
+        <v>20250813</v>
       </c>
       <c r="B211" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C211" t="s">
         <v>10</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E211" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F211" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="2">
-        <v>45882</v>
+      <c r="A212">
+        <v>20250813</v>
       </c>
       <c r="B212" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C212" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="2">
-        <v>45882</v>
+      <c r="A213">
+        <v>20250813</v>
       </c>
       <c r="B213" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C213" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E213" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F213" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="2">
-        <v>45882</v>
+      <c r="A214">
+        <v>20250813</v>
       </c>
       <c r="B214" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F214" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="2">
-        <v>45882</v>
+      <c r="A215">
+        <v>20250813</v>
       </c>
       <c r="B215" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C215" t="s">
         <v>15</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F215" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="2">
-        <v>45882</v>
+      <c r="A216">
+        <v>20250813</v>
       </c>
       <c r="B216" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E216" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F216" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="2">
-        <v>45882</v>
+      <c r="A217">
+        <v>20250813</v>
       </c>
       <c r="B217" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C217" t="s">
         <v>16</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F217" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="2">
-        <v>45882</v>
+      <c r="A218">
+        <v>20250813</v>
       </c>
       <c r="B218" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E218" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F218" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="2">
-        <v>45882</v>
+      <c r="A219">
+        <v>20250813</v>
       </c>
       <c r="B219" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E219" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F219" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="2">
-        <v>45882</v>
+      <c r="A220">
+        <v>20250813</v>
       </c>
       <c r="B220" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E220" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F220" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="2">
-        <v>45882</v>
+      <c r="A221">
+        <v>20250813</v>
       </c>
       <c r="B221" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C221" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F221" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="2">
-        <v>45882</v>
+      <c r="A222">
+        <v>20250813</v>
       </c>
       <c r="B222" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E222" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F222" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
-        <v>45882</v>
+      <c r="A223">
+        <v>20250813</v>
       </c>
       <c r="B223" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C223" t="s">
         <v>10</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E223" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F223" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
-        <v>45882</v>
+      <c r="A224">
+        <v>20250813</v>
       </c>
       <c r="B224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C224" t="s">
         <v>11</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E224" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F224" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="2">
-        <v>45882</v>
+      <c r="A225">
+        <v>20250813</v>
       </c>
       <c r="B225" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C225" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E225" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F225" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="2">
-        <v>45882</v>
+      <c r="A226">
+        <v>20250813</v>
       </c>
       <c r="B226" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E226" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F226" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="2">
-        <v>45882</v>
+      <c r="A227">
+        <v>20250813</v>
       </c>
       <c r="B227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C227" t="s">
         <v>15</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E227" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F227" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="2">
-        <v>45882</v>
+      <c r="A228">
+        <v>20250813</v>
       </c>
       <c r="B228" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E228" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F228" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="2">
-        <v>45882</v>
+      <c r="A229">
+        <v>20250813</v>
       </c>
       <c r="B229" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C229" t="s">
         <v>16</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F229" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="2">
-        <v>45882</v>
+      <c r="A230">
+        <v>20250813</v>
       </c>
       <c r="B230" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F230" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="2">
-        <v>45882</v>
+      <c r="A231">
+        <v>20250813</v>
       </c>
       <c r="B231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E231" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F231" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="2">
-        <v>45882</v>
+      <c r="A232">
+        <v>20250813</v>
       </c>
       <c r="B232" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F232" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="2">
-        <v>45882</v>
+      <c r="A233">
+        <v>20250813</v>
       </c>
       <c r="B233" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C233" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E233" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F233" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="2">
-        <v>45882</v>
+      <c r="A234">
+        <v>20250813</v>
       </c>
       <c r="B234" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F234" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="2">
-        <v>45882</v>
+      <c r="A235">
+        <v>20250813</v>
       </c>
       <c r="B235" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C235" t="s">
         <v>10</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E235" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F235" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="2">
-        <v>45882</v>
+      <c r="A236">
+        <v>20250813</v>
       </c>
       <c r="B236" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C236" t="s">
         <v>11</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F236" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="2">
-        <v>45882</v>
+      <c r="A237">
+        <v>20250813</v>
       </c>
       <c r="B237" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E237" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F237" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="2">
-        <v>45882</v>
+      <c r="A238">
+        <v>20250813</v>
       </c>
       <c r="B238" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C238" t="s">
         <v>13</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E238" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F238" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="2">
-        <v>45882</v>
+      <c r="A239">
+        <v>20250813</v>
       </c>
       <c r="B239" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C239" t="s">
         <v>15</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E239" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F239" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="2">
-        <v>45882</v>
+      <c r="A240">
+        <v>20250813</v>
       </c>
       <c r="B240" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C240" t="s">
         <v>14</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E240" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F240" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="2">
-        <v>45882</v>
+      <c r="A241">
+        <v>20250813</v>
       </c>
       <c r="B241" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C241" t="s">
         <v>16</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E241" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F241" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="2">
-        <v>45882</v>
+      <c r="A242">
+        <v>20250813</v>
       </c>
       <c r="B242" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E242" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F242" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="2">
-        <v>45882</v>
+      <c r="A243">
+        <v>20250813</v>
       </c>
       <c r="B243" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F243" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="2">
-        <v>45882</v>
+      <c r="A244">
+        <v>20250813</v>
       </c>
       <c r="B244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E244" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F244" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="2">
-        <v>45882</v>
+      <c r="A245">
+        <v>20250813</v>
       </c>
       <c r="B245" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C245" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F245" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="2">
-        <v>45882</v>
+      <c r="A246">
+        <v>20250813</v>
       </c>
       <c r="B246" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C246" t="s">
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E246" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F246" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="2">
-        <v>45882</v>
+      <c r="A247">
+        <v>20250813</v>
       </c>
       <c r="B247" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C247" t="s">
         <v>10</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E247" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F247" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="2">
-        <v>45882</v>
+      <c r="A248">
+        <v>20250813</v>
       </c>
       <c r="B248" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C248" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E248" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F248" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="2">
-        <v>45882</v>
+      <c r="A249">
+        <v>20250813</v>
       </c>
       <c r="B249" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C249" t="s">
         <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F249" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="2">
-        <v>45882</v>
+      <c r="A250">
+        <v>20250813</v>
       </c>
       <c r="B250" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C250" t="s">
         <v>13</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E250" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F250" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="2">
-        <v>45882</v>
+      <c r="A251">
+        <v>20250813</v>
       </c>
       <c r="B251" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C251" t="s">
         <v>15</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F251" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="2">
-        <v>45882</v>
+      <c r="A252">
+        <v>20250813</v>
       </c>
       <c r="B252" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C252" t="s">
         <v>14</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E252" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F252" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="2">
-        <v>45882</v>
+      <c r="A253">
+        <v>20250813</v>
       </c>
       <c r="B253" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E253" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F253" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="2">
-        <v>45882</v>
+      <c r="A254">
+        <v>20250813</v>
       </c>
       <c r="B254" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F254" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="2">
-        <v>45882</v>
+      <c r="A255">
+        <v>20250813</v>
       </c>
       <c r="B255" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E255" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F255" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="2">
-        <v>45882</v>
+      <c r="A256">
+        <v>20250813</v>
       </c>
       <c r="B256" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E256" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F256" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="2">
-        <v>45882</v>
+      <c r="A257">
+        <v>20250813</v>
       </c>
       <c r="B257" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C257" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E257" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F257" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="2">
-        <v>45882</v>
+      <c r="A258">
+        <v>20250813</v>
       </c>
       <c r="B258" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C258" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E258" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F258" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="2">
-        <v>45882</v>
+      <c r="A259">
+        <v>20250813</v>
       </c>
       <c r="B259" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C259" t="s">
         <v>10</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E259" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F259" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="2">
-        <v>45882</v>
+      <c r="A260">
+        <v>20250813</v>
       </c>
       <c r="B260" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C260" t="s">
         <v>11</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E260" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F260" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="2">
-        <v>45882</v>
+      <c r="A261">
+        <v>20250813</v>
       </c>
       <c r="B261" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C261" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E261" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F261" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="2">
-        <v>45882</v>
+      <c r="A262">
+        <v>20250813</v>
       </c>
       <c r="B262" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C262" t="s">
         <v>13</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E262" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F262" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="2">
-        <v>45882</v>
+      <c r="A263">
+        <v>20250813</v>
       </c>
       <c r="B263" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C263" t="s">
         <v>15</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E263" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F263" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="2">
-        <v>45882</v>
+      <c r="A264">
+        <v>20250813</v>
       </c>
       <c r="B264" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F264" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="2">
-        <v>45882</v>
+      <c r="A265">
+        <v>20250813</v>
       </c>
       <c r="B265" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C265" t="s">
         <v>16</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E265" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F265" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="2">
-        <v>45882</v>
+      <c r="A266">
+        <v>20250813</v>
       </c>
       <c r="B266" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E266" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F266" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="2">
-        <v>45882</v>
+      <c r="A267">
+        <v>20250813</v>
       </c>
       <c r="B267" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E267" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F267" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="2">
-        <v>45882</v>
+      <c r="A268">
+        <v>20250813</v>
       </c>
       <c r="B268" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E268" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F268" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="2">
-        <v>45882</v>
+      <c r="A269">
+        <v>20250813</v>
       </c>
       <c r="B269" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C269" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E269" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F269" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="2">
-        <v>45882</v>
+      <c r="A270">
+        <v>20250813</v>
       </c>
       <c r="B270" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C270" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E270" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F270" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="2">
-        <v>45882</v>
+      <c r="A271">
+        <v>20250813</v>
       </c>
       <c r="B271" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C271" t="s">
         <v>10</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E271" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F271" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="2">
-        <v>45882</v>
+      <c r="A272">
+        <v>20250813</v>
       </c>
       <c r="B272" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C272" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E272" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F272" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A273" s="2">
-        <v>45882</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>20250813</v>
       </c>
       <c r="B273" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C273" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E273" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F273" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A274" s="2">
-        <v>45882</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>20250813</v>
       </c>
       <c r="B274" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C274" t="s">
         <v>13</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E274" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F274" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A275" s="2">
-        <v>45882</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>20250813</v>
       </c>
       <c r="B275" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C275" t="s">
         <v>15</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E275" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F275" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A276" s="2">
-        <v>45882</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>20250813</v>
       </c>
       <c r="B276" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C276" t="s">
         <v>14</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E276" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F276" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A277" s="2">
-        <v>45882</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>20250813</v>
       </c>
       <c r="B277" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C277" t="s">
         <v>16</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E277" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F277" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" s="2">
-        <v>45882</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>20250813</v>
       </c>
       <c r="B278" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E278" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F278" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" s="2">
-        <v>45882</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>20250813</v>
       </c>
       <c r="B279" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E279" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F279" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" s="2">
-        <v>45882</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>20250813</v>
       </c>
       <c r="B280" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C280" t="s">
         <v>7</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E280" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F280" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A281" s="2">
-        <v>45882</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>20250813</v>
       </c>
       <c r="B281" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C281" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E281" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F281" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A282" s="2">
-        <v>45882</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>20250813</v>
       </c>
       <c r="B282" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C282" t="s">
         <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E282" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F282" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A283" s="2">
-        <v>45882</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>20250813</v>
       </c>
       <c r="B283" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C283" t="s">
         <v>10</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E283" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F283" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" s="2">
-        <v>45882</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>20250813</v>
       </c>
       <c r="B284" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C284" t="s">
-        <v>11</v>
-      </c>
-      <c r="D284" s="2"/>
-      <c r="G284" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A285" s="2">
-        <v>45882</v>
+        <v>13</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E284" t="s">
+        <v>24</v>
+      </c>
+      <c r="F284" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>20250813</v>
       </c>
       <c r="B285" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C285" t="s">
-        <v>12</v>
-      </c>
-      <c r="D285" s="2"/>
-      <c r="G285" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A286" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B286" t="s">
-        <v>48</v>
-      </c>
-      <c r="C286" t="s">
-        <v>13</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E286" t="s">
-        <v>25</v>
-      </c>
-      <c r="F286" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A287" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B287" t="s">
-        <v>48</v>
-      </c>
-      <c r="C287" t="s">
         <v>15</v>
       </c>
-      <c r="D287" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E287" t="s">
-        <v>24</v>
-      </c>
-      <c r="F287" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A288" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B288" t="s">
-        <v>48</v>
-      </c>
-      <c r="C288" t="s">
-        <v>14</v>
-      </c>
-      <c r="D288" s="2"/>
-      <c r="G288" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B289" t="s">
-        <v>48</v>
-      </c>
-      <c r="C289" t="s">
-        <v>16</v>
-      </c>
-      <c r="D289" s="2"/>
-      <c r="G289" t="s">
-        <v>49</v>
-      </c>
+      <c r="D285" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E285" t="s">
+        <v>23</v>
+      </c>
+      <c r="F285" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D286" s="2"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D287" s="2"/>
     </row>
     <row r="1154" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H1154" t="s">
@@ -6588,6 +6526,22 @@
       <c r="H1201" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1248" s="1"/>
+      <c r="B1248" s="1"/>
+      <c r="C1248" s="1"/>
+      <c r="D1248" s="1"/>
+      <c r="E1248" s="1"/>
+      <c r="F1248" s="1"/>
+    </row>
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1249" s="1"/>
+      <c r="B1249" s="1"/>
+      <c r="C1249" s="1"/>
+      <c r="D1249" s="1"/>
+      <c r="E1249" s="1"/>
+      <c r="F1249" s="1"/>
     </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1250" s="1"/>
@@ -10413,22 +10367,6 @@
       <c r="D1727" s="1"/>
       <c r="E1727" s="1"/>
       <c r="F1727" s="1"/>
-    </row>
-    <row r="1728" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1728" s="1"/>
-      <c r="B1728" s="1"/>
-      <c r="C1728" s="1"/>
-      <c r="D1728" s="1"/>
-      <c r="E1728" s="1"/>
-      <c r="F1728" s="1"/>
-    </row>
-    <row r="1729" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1729" s="1"/>
-      <c r="B1729" s="1"/>
-      <c r="C1729" s="1"/>
-      <c r="D1729" s="1"/>
-      <c r="E1729" s="1"/>
-      <c r="F1729" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H1729">

--- a/data/ploidy/metadata/ploidy_metadata.xlsx
+++ b/data/ploidy/metadata/ploidy_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/ploidy/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vims0-my.sharepoint.com/personal/walton_vims_edu/Documents/CSALT Data/FARMS/Resazurin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB37F62-C476-C54C-B7E6-7C79190CA48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{3036D9D6-F3FB-1E49-8239-47E08A9D8EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37182BF2-25E0-C24F-8F12-9BAA08303D53}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28160" windowHeight="17760" xr2:uid="{9506B5CE-A628-164C-A7D7-A7FBD8EB9181}"/>
+    <workbookView xWindow="380" yWindow="780" windowWidth="23720" windowHeight="19940" xr2:uid="{9506B5CE-A628-164C-A7D7-A7FBD8EB9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>ploidy</t>
+  </si>
+  <si>
+    <t>type = "blank" or "sample"</t>
   </si>
   <si>
     <t>HNRY</t>
@@ -181,12 +184,18 @@
   <si>
     <t>plate24</t>
   </si>
+  <si>
+    <t>Left empty</t>
+  </si>
+  <si>
+    <t>column to plate 23 well B3 and plate 24 well A2, void to due spill/oyster sticking out of the top. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +215,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -228,10 +242,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,15 +581,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC4D201-160D-7744-A296-617284EC138C}">
-  <dimension ref="A1:H1727"/>
+  <dimension ref="A1:H1729"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" zoomScale="164" workbookViewId="0">
-      <selection activeCell="G282" sqref="G282"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="164" workbookViewId="0">
+      <selection activeCell="H275" sqref="H275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -602,8 +616,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>20250813</v>
+      <c r="A2" s="2">
+        <v>45882</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -612,18 +626,21 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>20250813</v>
+      <c r="A3" s="2">
+        <v>45882</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -632,18 +649,18 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>20250813</v>
+      <c r="A4" s="2">
+        <v>45882</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -652,18 +669,18 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>20250813</v>
+      <c r="A5" s="2">
+        <v>45882</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -672,18 +689,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>20250813</v>
+      <c r="A6" s="2">
+        <v>45882</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -692,18 +709,18 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>20250813</v>
+      <c r="A7" s="2">
+        <v>45882</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -712,18 +729,18 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>20250813</v>
+      <c r="A8" s="2">
+        <v>45882</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -732,18 +749,18 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>20250813</v>
+      <c r="A9" s="2">
+        <v>45882</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -752,18 +769,18 @@
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>20250813</v>
+      <c r="A10" s="2">
+        <v>45882</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -772,18 +789,18 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>20250813</v>
+      <c r="A11" s="2">
+        <v>45882</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -792,18 +809,18 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>20250813</v>
+      <c r="A12" s="2">
+        <v>45882</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -812,18 +829,18 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>20250813</v>
+      <c r="A13" s="2">
+        <v>45882</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -832,5460 +849,5517 @@
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>20250813</v>
+      <c r="A14" s="2">
+        <v>45882</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>20250813</v>
+      <c r="A15" s="2">
+        <v>45882</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>20250813</v>
+      <c r="A16" s="2">
+        <v>45882</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>20250813</v>
+      <c r="A17" s="2">
+        <v>45882</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>20250813</v>
+      <c r="A18" s="2">
+        <v>45882</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>20250813</v>
+      <c r="A19" s="2">
+        <v>45882</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20250813</v>
+      <c r="A20" s="2">
+        <v>45882</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20250813</v>
+      <c r="A21" s="2">
+        <v>45882</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20250813</v>
+      <c r="A22" s="2">
+        <v>45882</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>20250813</v>
+      <c r="A23" s="2">
+        <v>45882</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>20250813</v>
+      <c r="A24" s="2">
+        <v>45882</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>20250813</v>
+      <c r="A25" s="2">
+        <v>45882</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>20250813</v>
+      <c r="A26" s="2">
+        <v>45882</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>20250813</v>
+      <c r="A27" s="2">
+        <v>45882</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>20250813</v>
+      <c r="A28" s="2">
+        <v>45882</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>20250813</v>
+      <c r="A29" s="2">
+        <v>45882</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>20250813</v>
+      <c r="A30" s="2">
+        <v>45882</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>20250813</v>
+      <c r="A31" s="2">
+        <v>45882</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>20250813</v>
+      <c r="A32" s="2">
+        <v>45882</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>20250813</v>
+      <c r="A33" s="2">
+        <v>45882</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>20250813</v>
+      <c r="A34" s="2">
+        <v>45882</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>20250813</v>
+      <c r="A35" s="2">
+        <v>45882</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>20250813</v>
+      <c r="A36" s="2">
+        <v>45882</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>20250813</v>
+      <c r="A37" s="2">
+        <v>45882</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>20250813</v>
+      <c r="A38" s="2">
+        <v>45882</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>20250813</v>
+      <c r="A39" s="2">
+        <v>45882</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>20250813</v>
+      <c r="A40" s="2">
+        <v>45882</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>20250813</v>
+      <c r="A41" s="2">
+        <v>45882</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>20250813</v>
+      <c r="A42" s="2">
+        <v>45882</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>20250813</v>
+      <c r="A43" s="2">
+        <v>45882</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>20250813</v>
+      <c r="A44" s="2">
+        <v>45882</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>20250813</v>
+      <c r="A45" s="2">
+        <v>45882</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>20250813</v>
+      <c r="A46" s="2">
+        <v>45882</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>20250813</v>
+      <c r="A47" s="2">
+        <v>45882</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>20250813</v>
+      <c r="A48" s="2">
+        <v>45882</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>20250813</v>
+      <c r="A49" s="2">
+        <v>45882</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>20250813</v>
+      <c r="A50" s="2">
+        <v>45882</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>20250813</v>
+      <c r="A51" s="2">
+        <v>45882</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>20250813</v>
+      <c r="A52" s="2">
+        <v>45882</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>20250813</v>
+      <c r="A53" s="2">
+        <v>45882</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>20250813</v>
+      <c r="A54" s="2">
+        <v>45882</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>20250813</v>
+      <c r="A55" s="2">
+        <v>45882</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>20250813</v>
+      <c r="A56" s="2">
+        <v>45882</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>20250813</v>
+      <c r="A57" s="2">
+        <v>45882</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>20250813</v>
+      <c r="A58" s="2">
+        <v>45882</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>20250813</v>
+      <c r="A59" s="2">
+        <v>45882</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>20250813</v>
+      <c r="A60" s="2">
+        <v>45882</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>20250813</v>
+      <c r="A61" s="2">
+        <v>45882</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>20250813</v>
+      <c r="A62" s="2">
+        <v>45882</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>20250813</v>
+      <c r="A63" s="2">
+        <v>45882</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>20250813</v>
+      <c r="A64" s="2">
+        <v>45882</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>20250813</v>
+      <c r="A65" s="2">
+        <v>45882</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>20250813</v>
+      <c r="A66" s="2">
+        <v>45882</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>20250813</v>
+      <c r="A67" s="2">
+        <v>45882</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>20250813</v>
+      <c r="A68" s="2">
+        <v>45882</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>20250813</v>
+      <c r="A69" s="2">
+        <v>45882</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>20250813</v>
+      <c r="A70" s="2">
+        <v>45882</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>20250813</v>
+      <c r="A71" s="2">
+        <v>45882</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>20250813</v>
+      <c r="A72" s="2">
+        <v>45882</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>20250813</v>
+      <c r="A73" s="2">
+        <v>45882</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>20250813</v>
+      <c r="A74" s="2">
+        <v>45882</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>20250813</v>
+      <c r="A75" s="2">
+        <v>45882</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>20250813</v>
+      <c r="A76" s="2">
+        <v>45882</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>20250813</v>
+      <c r="A77" s="2">
+        <v>45882</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>20250813</v>
+      <c r="A78" s="2">
+        <v>45882</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>20250813</v>
+      <c r="A79" s="2">
+        <v>45882</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>20250813</v>
+      <c r="A80" s="2">
+        <v>45882</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>20250813</v>
+      <c r="A81" s="2">
+        <v>45882</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E81" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>20250813</v>
+      <c r="A82" s="2">
+        <v>45882</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>20250813</v>
+      <c r="A83" s="2">
+        <v>45882</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>20250813</v>
+      <c r="A84" s="2">
+        <v>45882</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>20250813</v>
+      <c r="A85" s="2">
+        <v>45882</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E85" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>20250813</v>
+      <c r="A86" s="2">
+        <v>45882</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E86" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>20250813</v>
+      <c r="A87" s="2">
+        <v>45882</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>20250813</v>
+      <c r="A88" s="2">
+        <v>45882</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E88" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>20250813</v>
+      <c r="A89" s="2">
+        <v>45882</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>20250813</v>
+      <c r="A90" s="2">
+        <v>45882</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E90" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>20250813</v>
+      <c r="A91" s="2">
+        <v>45882</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>20250813</v>
+      <c r="A92" s="2">
+        <v>45882</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E92" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>20250813</v>
+      <c r="A93" s="2">
+        <v>45882</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>20250813</v>
+      <c r="A94" s="2">
+        <v>45882</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E94" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>20250813</v>
+      <c r="A95" s="2">
+        <v>45882</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>20250813</v>
+      <c r="A96" s="2">
+        <v>45882</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>20250813</v>
+      <c r="A97" s="2">
+        <v>45882</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>20250813</v>
+      <c r="A98" s="2">
+        <v>45882</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E98" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>20250813</v>
+      <c r="A99" s="2">
+        <v>45882</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>20250813</v>
+      <c r="A100" s="2">
+        <v>45882</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>20250813</v>
+      <c r="A101" s="2">
+        <v>45882</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>20250813</v>
+      <c r="A102" s="2">
+        <v>45882</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>20250813</v>
+      <c r="A103" s="2">
+        <v>45882</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>20250813</v>
+      <c r="A104" s="2">
+        <v>45882</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>20250813</v>
+      <c r="A105" s="2">
+        <v>45882</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>20250813</v>
+      <c r="A106" s="2">
+        <v>45882</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E106" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>20250813</v>
+      <c r="A107" s="2">
+        <v>45882</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E107" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>20250813</v>
+      <c r="A108" s="2">
+        <v>45882</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>20250813</v>
+      <c r="A109" s="2">
+        <v>45882</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>20250813</v>
+      <c r="A110" s="2">
+        <v>45882</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E110" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>20250813</v>
+      <c r="A111" s="2">
+        <v>45882</v>
       </c>
       <c r="B111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>20250813</v>
+      <c r="A112" s="2">
+        <v>45882</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>20250813</v>
+      <c r="A113" s="2">
+        <v>45882</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>20250813</v>
+      <c r="A114" s="2">
+        <v>45882</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>20250813</v>
+      <c r="A115" s="2">
+        <v>45882</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>20250813</v>
+      <c r="A116" s="2">
+        <v>45882</v>
       </c>
       <c r="B116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E116" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>20250813</v>
+      <c r="A117" s="2">
+        <v>45882</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>20250813</v>
+      <c r="A118" s="2">
+        <v>45882</v>
       </c>
       <c r="B118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>20250813</v>
+      <c r="A119" s="2">
+        <v>45882</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>20250813</v>
+      <c r="A120" s="2">
+        <v>45882</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E120" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>20250813</v>
+      <c r="A121" s="2">
+        <v>45882</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>20250813</v>
+      <c r="A122" s="2">
+        <v>45882</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>20250813</v>
+      <c r="A123" s="2">
+        <v>45882</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>20250813</v>
+      <c r="A124" s="2">
+        <v>45882</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E124" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>20250813</v>
+      <c r="A125" s="2">
+        <v>45882</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E125" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>20250813</v>
+      <c r="A126" s="2">
+        <v>45882</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>20250813</v>
+      <c r="A127" s="2">
+        <v>45882</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E127" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>20250813</v>
+      <c r="A128" s="2">
+        <v>45882</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E128" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>20250813</v>
+      <c r="A129" s="2">
+        <v>45882</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E129" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>20250813</v>
+      <c r="A130" s="2">
+        <v>45882</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E130" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>20250813</v>
+      <c r="A131" s="2">
+        <v>45882</v>
       </c>
       <c r="B131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E131" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>20250813</v>
+      <c r="A132" s="2">
+        <v>45882</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>20250813</v>
+      <c r="A133" s="2">
+        <v>45882</v>
       </c>
       <c r="B133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E133" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>20250813</v>
+      <c r="A134" s="2">
+        <v>45882</v>
       </c>
       <c r="B134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>20250813</v>
+      <c r="A135" s="2">
+        <v>45882</v>
       </c>
       <c r="B135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E135" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F135" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>20250813</v>
+      <c r="A136" s="2">
+        <v>45882</v>
       </c>
       <c r="B136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E136" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>20250813</v>
+      <c r="A137" s="2">
+        <v>45882</v>
       </c>
       <c r="B137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E137" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>20250813</v>
+      <c r="A138" s="2">
+        <v>45882</v>
       </c>
       <c r="B138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>20250813</v>
+      <c r="A139" s="2">
+        <v>45882</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C139" t="s">
         <v>10</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>20250813</v>
+      <c r="A140" s="2">
+        <v>45882</v>
       </c>
       <c r="B140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>20250813</v>
+      <c r="A141" s="2">
+        <v>45882</v>
       </c>
       <c r="B141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>20250813</v>
+      <c r="A142" s="2">
+        <v>45882</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E142" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>20250813</v>
+      <c r="A143" s="2">
+        <v>45882</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>20250813</v>
+      <c r="A144" s="2">
+        <v>45882</v>
       </c>
       <c r="B144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E144" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>20250813</v>
+      <c r="A145" s="2">
+        <v>45882</v>
       </c>
       <c r="B145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C145" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>20250813</v>
+      <c r="A146" s="2">
+        <v>45882</v>
       </c>
       <c r="B146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>20250813</v>
+      <c r="A147" s="2">
+        <v>45882</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E147" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>20250813</v>
+      <c r="A148" s="2">
+        <v>45882</v>
       </c>
       <c r="B148" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>20250813</v>
+      <c r="A149" s="2">
+        <v>45882</v>
       </c>
       <c r="B149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E149" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>20250813</v>
+      <c r="A150" s="2">
+        <v>45882</v>
       </c>
       <c r="B150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E150" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F150" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>20250813</v>
+      <c r="A151" s="2">
+        <v>45882</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>20250813</v>
+      <c r="A152" s="2">
+        <v>45882</v>
       </c>
       <c r="B152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F152" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>20250813</v>
+      <c r="A153" s="2">
+        <v>45882</v>
       </c>
       <c r="B153" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C153" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>20250813</v>
+      <c r="A154" s="2">
+        <v>45882</v>
       </c>
       <c r="B154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C154" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E154" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>20250813</v>
+      <c r="A155" s="2">
+        <v>45882</v>
       </c>
       <c r="B155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>20250813</v>
+      <c r="A156" s="2">
+        <v>45882</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>20250813</v>
+      <c r="A157" s="2">
+        <v>45882</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C157" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>20250813</v>
+      <c r="A158" s="2">
+        <v>45882</v>
       </c>
       <c r="B158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>20250813</v>
+      <c r="A159" s="2">
+        <v>45882</v>
       </c>
       <c r="B159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>20250813</v>
+      <c r="A160" s="2">
+        <v>45882</v>
       </c>
       <c r="B160" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>20250813</v>
+      <c r="A161" s="2">
+        <v>45882</v>
       </c>
       <c r="B161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E161" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>20250813</v>
+      <c r="A162" s="2">
+        <v>45882</v>
       </c>
       <c r="B162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C162" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E162" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>20250813</v>
+      <c r="A163" s="2">
+        <v>45882</v>
       </c>
       <c r="B163" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C163" t="s">
         <v>10</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E163" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F163" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>20250813</v>
+      <c r="A164" s="2">
+        <v>45882</v>
       </c>
       <c r="B164" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E164" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F164" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>20250813</v>
+      <c r="A165" s="2">
+        <v>45882</v>
       </c>
       <c r="B165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C165" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F165" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>20250813</v>
+      <c r="A166" s="2">
+        <v>45882</v>
       </c>
       <c r="B166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C166" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E166" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F166" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>20250813</v>
+      <c r="A167" s="2">
+        <v>45882</v>
       </c>
       <c r="B167" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C167" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E167" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F167" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>20250813</v>
+      <c r="A168" s="2">
+        <v>45882</v>
       </c>
       <c r="B168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F168" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>20250813</v>
+      <c r="A169" s="2">
+        <v>45882</v>
       </c>
       <c r="B169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C169" t="s">
         <v>16</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E169" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F169" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>20250813</v>
+      <c r="A170" s="2">
+        <v>45882</v>
       </c>
       <c r="B170" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E170" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F170" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>20250813</v>
+      <c r="A171" s="2">
+        <v>45882</v>
       </c>
       <c r="B171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E171" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F171" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>20250813</v>
+      <c r="A172" s="2">
+        <v>45882</v>
       </c>
       <c r="B172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E172" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F172" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>20250813</v>
+      <c r="A173" s="2">
+        <v>45882</v>
       </c>
       <c r="B173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C173" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E173" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F173" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>20250813</v>
+      <c r="A174" s="2">
+        <v>45882</v>
       </c>
       <c r="B174" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E174" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F174" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>20250813</v>
+      <c r="A175" s="2">
+        <v>45882</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C175" t="s">
         <v>10</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E175" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F175" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>20250813</v>
+      <c r="A176" s="2">
+        <v>45882</v>
       </c>
       <c r="B176" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C176" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E176" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F176" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>20250813</v>
+      <c r="A177" s="2">
+        <v>45882</v>
       </c>
       <c r="B177" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E177" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F177" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>20250813</v>
+      <c r="A178" s="2">
+        <v>45882</v>
       </c>
       <c r="B178" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E178" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F178" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>20250813</v>
+      <c r="A179" s="2">
+        <v>45882</v>
       </c>
       <c r="B179" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C179" t="s">
         <v>15</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E179" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>20250813</v>
+      <c r="A180" s="2">
+        <v>45882</v>
       </c>
       <c r="B180" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C180" t="s">
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E180" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F180" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>20250813</v>
+      <c r="A181" s="2">
+        <v>45882</v>
       </c>
       <c r="B181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E181" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F181" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>20250813</v>
+      <c r="A182" s="2">
+        <v>45882</v>
       </c>
       <c r="B182" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E182" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F182" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>20250813</v>
+      <c r="A183" s="2">
+        <v>45882</v>
       </c>
       <c r="B183" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E183" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>20250813</v>
+      <c r="A184" s="2">
+        <v>45882</v>
       </c>
       <c r="B184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E184" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F184" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>20250813</v>
+      <c r="A185" s="2">
+        <v>45882</v>
       </c>
       <c r="B185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C185" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E185" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F185" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>20250813</v>
+      <c r="A186" s="2">
+        <v>45882</v>
       </c>
       <c r="B186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E186" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F186" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>20250813</v>
+      <c r="A187" s="2">
+        <v>45882</v>
       </c>
       <c r="B187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C187" t="s">
         <v>10</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E187" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F187" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>20250813</v>
+      <c r="A188" s="2">
+        <v>45882</v>
       </c>
       <c r="B188" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C188" t="s">
         <v>11</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E188" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F188" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>20250813</v>
+      <c r="A189" s="2">
+        <v>45882</v>
       </c>
       <c r="B189" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E189" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>20250813</v>
+      <c r="A190" s="2">
+        <v>45882</v>
       </c>
       <c r="B190" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E190" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F190" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>20250813</v>
+      <c r="A191" s="2">
+        <v>45882</v>
       </c>
       <c r="B191" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C191" t="s">
         <v>15</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>20250813</v>
+      <c r="A192" s="2">
+        <v>45882</v>
       </c>
       <c r="B192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E192" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F192" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>20250813</v>
+      <c r="A193" s="2">
+        <v>45882</v>
       </c>
       <c r="B193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C193" t="s">
         <v>16</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F193" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>20250813</v>
+      <c r="A194" s="2">
+        <v>45882</v>
       </c>
       <c r="B194" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E194" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F194" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>20250813</v>
+      <c r="A195" s="2">
+        <v>45882</v>
       </c>
       <c r="B195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E195" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>20250813</v>
+      <c r="A196" s="2">
+        <v>45882</v>
       </c>
       <c r="B196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E196" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F196" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>20250813</v>
+      <c r="A197" s="2">
+        <v>45882</v>
       </c>
       <c r="B197" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C197" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E197" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F197" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>20250813</v>
+      <c r="A198" s="2">
+        <v>45882</v>
       </c>
       <c r="B198" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E198" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F198" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>20250813</v>
+      <c r="A199" s="2">
+        <v>45882</v>
       </c>
       <c r="B199" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C199" t="s">
         <v>10</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E199" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F199" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>20250813</v>
+      <c r="A200" s="2">
+        <v>45882</v>
       </c>
       <c r="B200" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C200" t="s">
         <v>11</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E200" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F200" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>20250813</v>
+      <c r="A201" s="2">
+        <v>45882</v>
       </c>
       <c r="B201" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C201" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E201" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F201" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>20250813</v>
+      <c r="A202" s="2">
+        <v>45882</v>
       </c>
       <c r="B202" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E202" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F202" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>20250813</v>
+      <c r="A203" s="2">
+        <v>45882</v>
       </c>
       <c r="B203" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C203" t="s">
         <v>15</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E203" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F203" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>20250813</v>
+      <c r="A204" s="2">
+        <v>45882</v>
       </c>
       <c r="B204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E204" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F204" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>20250813</v>
+      <c r="A205" s="2">
+        <v>45882</v>
       </c>
       <c r="B205" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C205" t="s">
         <v>16</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E205" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F205" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>20250813</v>
+      <c r="A206" s="2">
+        <v>45882</v>
       </c>
       <c r="B206" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E206" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F206" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>20250813</v>
+      <c r="A207" s="2">
+        <v>45882</v>
       </c>
       <c r="B207" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E207" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F207" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>20250813</v>
+      <c r="A208" s="2">
+        <v>45882</v>
       </c>
       <c r="B208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E208" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F208" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>20250813</v>
+      <c r="A209" s="2">
+        <v>45882</v>
       </c>
       <c r="B209" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C209" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E209" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F209" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>20250813</v>
+      <c r="A210" s="2">
+        <v>45882</v>
       </c>
       <c r="B210" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C210" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E210" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F210" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>20250813</v>
+      <c r="A211" s="2">
+        <v>45882</v>
       </c>
       <c r="B211" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C211" t="s">
         <v>10</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E211" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F211" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>20250813</v>
+      <c r="A212" s="2">
+        <v>45882</v>
       </c>
       <c r="B212" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C212" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E212" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F212" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>20250813</v>
+      <c r="A213" s="2">
+        <v>45882</v>
       </c>
       <c r="B213" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C213" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E213" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F213" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>20250813</v>
+      <c r="A214" s="2">
+        <v>45882</v>
       </c>
       <c r="B214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E214" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F214" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>20250813</v>
+      <c r="A215" s="2">
+        <v>45882</v>
       </c>
       <c r="B215" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C215" t="s">
         <v>15</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E215" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F215" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>20250813</v>
+      <c r="A216" s="2">
+        <v>45882</v>
       </c>
       <c r="B216" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E216" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F216" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>20250813</v>
+      <c r="A217" s="2">
+        <v>45882</v>
       </c>
       <c r="B217" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C217" t="s">
         <v>16</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E217" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F217" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>20250813</v>
+      <c r="A218" s="2">
+        <v>45882</v>
       </c>
       <c r="B218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E218" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F218" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>20250813</v>
+      <c r="A219" s="2">
+        <v>45882</v>
       </c>
       <c r="B219" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E219" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F219" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>20250813</v>
+      <c r="A220" s="2">
+        <v>45882</v>
       </c>
       <c r="B220" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E220" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F220" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>20250813</v>
+      <c r="A221" s="2">
+        <v>45882</v>
       </c>
       <c r="B221" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C221" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E221" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F221" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>20250813</v>
+      <c r="A222" s="2">
+        <v>45882</v>
       </c>
       <c r="B222" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E222" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F222" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>20250813</v>
+      <c r="A223" s="2">
+        <v>45882</v>
       </c>
       <c r="B223" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C223" t="s">
         <v>10</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E223" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F223" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>20250813</v>
+      <c r="A224" s="2">
+        <v>45882</v>
       </c>
       <c r="B224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C224" t="s">
         <v>11</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E224" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F224" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>20250813</v>
+      <c r="A225" s="2">
+        <v>45882</v>
       </c>
       <c r="B225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C225" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E225" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F225" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>20250813</v>
+      <c r="A226" s="2">
+        <v>45882</v>
       </c>
       <c r="B226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E226" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F226" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <v>20250813</v>
+      <c r="A227" s="2">
+        <v>45882</v>
       </c>
       <c r="B227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C227" t="s">
         <v>15</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E227" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F227" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <v>20250813</v>
+      <c r="A228" s="2">
+        <v>45882</v>
       </c>
       <c r="B228" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E228" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F228" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <v>20250813</v>
+      <c r="A229" s="2">
+        <v>45882</v>
       </c>
       <c r="B229" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C229" t="s">
         <v>16</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E229" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F229" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230">
-        <v>20250813</v>
+      <c r="A230" s="2">
+        <v>45882</v>
       </c>
       <c r="B230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E230" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F230" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231">
-        <v>20250813</v>
+      <c r="A231" s="2">
+        <v>45882</v>
       </c>
       <c r="B231" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E231" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F231" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232">
-        <v>20250813</v>
+      <c r="A232" s="2">
+        <v>45882</v>
       </c>
       <c r="B232" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E232" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F232" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233">
-        <v>20250813</v>
+      <c r="A233" s="2">
+        <v>45882</v>
       </c>
       <c r="B233" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C233" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E233" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F233" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234">
-        <v>20250813</v>
+      <c r="A234" s="2">
+        <v>45882</v>
       </c>
       <c r="B234" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E234" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F234" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235">
-        <v>20250813</v>
+      <c r="A235" s="2">
+        <v>45882</v>
       </c>
       <c r="B235" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C235" t="s">
         <v>10</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E235" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F235" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236">
-        <v>20250813</v>
+      <c r="A236" s="2">
+        <v>45882</v>
       </c>
       <c r="B236" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C236" t="s">
         <v>11</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E236" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F236" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <v>20250813</v>
+      <c r="A237" s="2">
+        <v>45882</v>
       </c>
       <c r="B237" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E237" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F237" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238">
-        <v>20250813</v>
+      <c r="A238" s="2">
+        <v>45882</v>
       </c>
       <c r="B238" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C238" t="s">
         <v>13</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E238" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F238" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>20250813</v>
+      <c r="A239" s="2">
+        <v>45882</v>
       </c>
       <c r="B239" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C239" t="s">
         <v>15</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E239" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F239" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240">
-        <v>20250813</v>
+      <c r="A240" s="2">
+        <v>45882</v>
       </c>
       <c r="B240" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C240" t="s">
         <v>14</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E240" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F240" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241">
-        <v>20250813</v>
+      <c r="A241" s="2">
+        <v>45882</v>
       </c>
       <c r="B241" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C241" t="s">
         <v>16</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E241" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F241" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242">
-        <v>20250813</v>
+      <c r="A242" s="2">
+        <v>45882</v>
       </c>
       <c r="B242" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E242" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F242" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243">
-        <v>20250813</v>
+      <c r="A243" s="2">
+        <v>45882</v>
       </c>
       <c r="B243" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E243" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F243" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244">
-        <v>20250813</v>
+      <c r="A244" s="2">
+        <v>45882</v>
       </c>
       <c r="B244" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E244" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F244" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245">
-        <v>20250813</v>
+      <c r="A245" s="2">
+        <v>45882</v>
       </c>
       <c r="B245" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C245" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E245" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F245" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246">
-        <v>20250813</v>
+      <c r="A246" s="2">
+        <v>45882</v>
       </c>
       <c r="B246" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C246" t="s">
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E246" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F246" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247">
-        <v>20250813</v>
+      <c r="A247" s="2">
+        <v>45882</v>
       </c>
       <c r="B247" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C247" t="s">
         <v>10</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E247" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F247" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248">
-        <v>20250813</v>
+      <c r="A248" s="2">
+        <v>45882</v>
       </c>
       <c r="B248" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C248" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E248" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F248" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249">
-        <v>20250813</v>
+      <c r="A249" s="2">
+        <v>45882</v>
       </c>
       <c r="B249" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C249" t="s">
         <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E249" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F249" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250">
-        <v>20250813</v>
+      <c r="A250" s="2">
+        <v>45882</v>
       </c>
       <c r="B250" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C250" t="s">
         <v>13</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E250" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F250" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251">
-        <v>20250813</v>
+      <c r="A251" s="2">
+        <v>45882</v>
       </c>
       <c r="B251" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C251" t="s">
         <v>15</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E251" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F251" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252">
-        <v>20250813</v>
+      <c r="A252" s="2">
+        <v>45882</v>
       </c>
       <c r="B252" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C252" t="s">
         <v>14</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E252" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F252" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253">
-        <v>20250813</v>
+      <c r="A253" s="2">
+        <v>45882</v>
       </c>
       <c r="B253" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E253" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F253" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254">
-        <v>20250813</v>
+      <c r="A254" s="2">
+        <v>45882</v>
       </c>
       <c r="B254" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E254" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F254" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255">
-        <v>20250813</v>
+      <c r="A255" s="2">
+        <v>45882</v>
       </c>
       <c r="B255" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E255" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F255" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256">
-        <v>20250813</v>
+      <c r="A256" s="2">
+        <v>45882</v>
       </c>
       <c r="B256" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E256" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F256" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257">
-        <v>20250813</v>
+      <c r="A257" s="2">
+        <v>45882</v>
       </c>
       <c r="B257" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C257" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E257" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F257" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258">
-        <v>20250813</v>
+      <c r="A258" s="2">
+        <v>45882</v>
       </c>
       <c r="B258" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C258" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E258" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F258" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259">
-        <v>20250813</v>
+      <c r="A259" s="2">
+        <v>45882</v>
       </c>
       <c r="B259" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C259" t="s">
         <v>10</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E259" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F259" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260">
-        <v>20250813</v>
+      <c r="A260" s="2">
+        <v>45882</v>
       </c>
       <c r="B260" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C260" t="s">
         <v>11</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E260" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F260" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261">
-        <v>20250813</v>
+      <c r="A261" s="2">
+        <v>45882</v>
       </c>
       <c r="B261" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C261" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E261" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F261" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262">
-        <v>20250813</v>
+      <c r="A262" s="2">
+        <v>45882</v>
       </c>
       <c r="B262" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C262" t="s">
         <v>13</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E262" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F262" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263">
-        <v>20250813</v>
+      <c r="A263" s="2">
+        <v>45882</v>
       </c>
       <c r="B263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C263" t="s">
         <v>15</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E263" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F263" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264">
-        <v>20250813</v>
+      <c r="A264" s="2">
+        <v>45882</v>
       </c>
       <c r="B264" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E264" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F264" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265">
-        <v>20250813</v>
+      <c r="A265" s="2">
+        <v>45882</v>
       </c>
       <c r="B265" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C265" t="s">
         <v>16</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E265" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F265" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266">
-        <v>20250813</v>
+      <c r="A266" s="2">
+        <v>45882</v>
       </c>
       <c r="B266" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E266" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F266" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267">
-        <v>20250813</v>
+      <c r="A267" s="2">
+        <v>45882</v>
       </c>
       <c r="B267" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E267" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F267" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268">
-        <v>20250813</v>
+      <c r="A268" s="2">
+        <v>45882</v>
       </c>
       <c r="B268" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E268" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F268" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269">
-        <v>20250813</v>
+      <c r="A269" s="2">
+        <v>45882</v>
       </c>
       <c r="B269" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C269" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E269" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F269" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270">
-        <v>20250813</v>
+      <c r="A270" s="2">
+        <v>45882</v>
       </c>
       <c r="B270" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C270" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E270" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F270" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271">
-        <v>20250813</v>
+      <c r="A271" s="2">
+        <v>45882</v>
       </c>
       <c r="B271" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C271" t="s">
         <v>10</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E271" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F271" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272">
-        <v>20250813</v>
+      <c r="A272" s="2">
+        <v>45882</v>
       </c>
       <c r="B272" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C272" t="s">
         <v>11</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E272" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F272" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273">
-        <v>20250813</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>45882</v>
       </c>
       <c r="B273" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C273" t="s">
         <v>12</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E273" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F273" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274">
-        <v>20250813</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>45882</v>
       </c>
       <c r="B274" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C274" t="s">
         <v>13</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E274" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F274" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275">
-        <v>20250813</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>45882</v>
       </c>
       <c r="B275" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C275" t="s">
         <v>15</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E275" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F275" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276">
-        <v>20250813</v>
+        <v>23</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>45882</v>
       </c>
       <c r="B276" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C276" t="s">
         <v>14</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E276" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F276" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277">
-        <v>20250813</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>45882</v>
       </c>
       <c r="B277" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C277" t="s">
         <v>16</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E277" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F277" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278">
-        <v>20250813</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>45882</v>
       </c>
       <c r="B278" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E278" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F278" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279">
-        <v>20250813</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>45882</v>
       </c>
       <c r="B279" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E279" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F279" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280">
-        <v>20250813</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>45882</v>
       </c>
       <c r="B280" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C280" t="s">
         <v>7</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E280" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F280" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281">
-        <v>20250813</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>45882</v>
       </c>
       <c r="B281" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C281" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E281" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F281" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282">
-        <v>20250813</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>45882</v>
       </c>
       <c r="B282" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C282" t="s">
         <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E282" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F282" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283">
-        <v>20250813</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>45882</v>
       </c>
       <c r="B283" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C283" t="s">
         <v>10</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E283" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F283" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284">
-        <v>20250813</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>45882</v>
       </c>
       <c r="B284" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C284" t="s">
+        <v>11</v>
+      </c>
+      <c r="D284" s="2"/>
+      <c r="G284" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>45882</v>
+      </c>
+      <c r="B285" t="s">
+        <v>48</v>
+      </c>
+      <c r="C285" t="s">
+        <v>12</v>
+      </c>
+      <c r="D285" s="2"/>
+      <c r="G285" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>45882</v>
+      </c>
+      <c r="B286" t="s">
+        <v>48</v>
+      </c>
+      <c r="C286" t="s">
         <v>13</v>
       </c>
-      <c r="D284" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E284" t="s">
-        <v>24</v>
-      </c>
-      <c r="F284" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285">
-        <v>20250813</v>
-      </c>
-      <c r="B285" t="s">
-        <v>47</v>
-      </c>
-      <c r="C285" t="s">
+      <c r="D286" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E286" t="s">
+        <v>25</v>
+      </c>
+      <c r="F286" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>45882</v>
+      </c>
+      <c r="B287" t="s">
+        <v>48</v>
+      </c>
+      <c r="C287" t="s">
         <v>15</v>
       </c>
-      <c r="D285" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E285" t="s">
-        <v>23</v>
-      </c>
-      <c r="F285" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D286" s="2"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D287" s="2"/>
+      <c r="D287" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E287" t="s">
+        <v>24</v>
+      </c>
+      <c r="F287" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>45882</v>
+      </c>
+      <c r="B288" t="s">
+        <v>48</v>
+      </c>
+      <c r="C288" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="2"/>
+      <c r="G288" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>45882</v>
+      </c>
+      <c r="B289" t="s">
+        <v>48</v>
+      </c>
+      <c r="C289" t="s">
+        <v>16</v>
+      </c>
+      <c r="D289" s="2"/>
+      <c r="G289" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="1154" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H1154" t="s">
@@ -6526,22 +6600,6 @@
       <c r="H1201" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1248" s="1"/>
-      <c r="B1248" s="1"/>
-      <c r="C1248" s="1"/>
-      <c r="D1248" s="1"/>
-      <c r="E1248" s="1"/>
-      <c r="F1248" s="1"/>
-    </row>
-    <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1249" s="1"/>
-      <c r="B1249" s="1"/>
-      <c r="C1249" s="1"/>
-      <c r="D1249" s="1"/>
-      <c r="E1249" s="1"/>
-      <c r="F1249" s="1"/>
     </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1250" s="1"/>
@@ -10367,6 +10425,22 @@
       <c r="D1727" s="1"/>
       <c r="E1727" s="1"/>
       <c r="F1727" s="1"/>
+    </row>
+    <row r="1728" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1728" s="1"/>
+      <c r="B1728" s="1"/>
+      <c r="C1728" s="1"/>
+      <c r="D1728" s="1"/>
+      <c r="E1728" s="1"/>
+      <c r="F1728" s="1"/>
+    </row>
+    <row r="1729" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1729" s="1"/>
+      <c r="B1729" s="1"/>
+      <c r="C1729" s="1"/>
+      <c r="D1729" s="1"/>
+      <c r="E1729" s="1"/>
+      <c r="F1729" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H1729">

--- a/data/ploidy/metadata/ploidy_metadata.xlsx
+++ b/data/ploidy/metadata/ploidy_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vims0-my.sharepoint.com/personal/walton_vims_edu/Documents/CSALT Data/FARMS/Resazurin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/vims-resazurin/data/ploidy/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{3036D9D6-F3FB-1E49-8239-47E08A9D8EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37182BF2-25E0-C24F-8F12-9BAA08303D53}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FA12A5-4C92-A741-9CEE-3ECF5C12DEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="780" windowWidth="23720" windowHeight="19940" xr2:uid="{9506B5CE-A628-164C-A7D7-A7FBD8EB9181}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="27820" windowHeight="17760" xr2:uid="{9506B5CE-A628-164C-A7D7-A7FBD8EB9181}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="46">
   <si>
     <t>date</t>
   </si>
@@ -92,16 +92,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>ploidy</t>
-  </si>
-  <si>
-    <t>type = "blank" or "sample"</t>
   </si>
   <si>
     <t>HNRY</t>
@@ -184,18 +175,12 @@
   <si>
     <t>plate24</t>
   </si>
-  <si>
-    <t>Left empty</t>
-  </si>
-  <si>
-    <t>column to plate 23 well B3 and plate 24 well A2, void to due spill/oyster sticking out of the top. </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -215,11 +200,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,11 +222,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC4D201-160D-7744-A296-617284EC138C}">
-  <dimension ref="A1:H1729"/>
+  <dimension ref="A1:F1723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="164" workbookViewId="0">
-      <selection activeCell="H275" sqref="H275"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="G2" sqref="G1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +571,7 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,18 +585,15 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>45882</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20250813</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -626,21 +602,18 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20250813</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -649,18 +622,18 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20250813</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -669,18 +642,18 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20250813</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -689,18 +662,18 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20250813</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -709,18 +682,18 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20250813</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -729,18 +702,18 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20250813</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -749,18 +722,18 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20250813</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -769,18 +742,18 @@
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20250813</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -789,18 +762,18 @@
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20250813</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -809,18 +782,18 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20250813</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -829,18 +802,18 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20250813</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -849,5757 +822,5462 @@
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20250813</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20250813</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20250813</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>45882</v>
+      <c r="A17">
+        <v>20250813</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20250813</v>
+      </c>
+      <c r="B18" t="s">
         <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>45882</v>
+      <c r="A19">
+        <v>20250813</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20250813</v>
+      </c>
+      <c r="B20" t="s">
         <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>45882</v>
+      <c r="A21">
+        <v>20250813</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20250813</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>45882</v>
+      <c r="A23">
+        <v>20250813</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20250813</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>45882</v>
+      <c r="A25">
+        <v>20250813</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20250813</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20250813</v>
+      </c>
+      <c r="B27" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20250813</v>
+      </c>
+      <c r="B28" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20250813</v>
+      </c>
+      <c r="B29" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20250813</v>
+      </c>
+      <c r="B30" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20250813</v>
+      </c>
+      <c r="B31" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20250813</v>
+      </c>
+      <c r="B32" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20250813</v>
+      </c>
+      <c r="B33" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20250813</v>
+      </c>
+      <c r="B34" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20250813</v>
+      </c>
+      <c r="B35" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20250813</v>
+      </c>
+      <c r="B36" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20250813</v>
+      </c>
+      <c r="B37" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20250813</v>
+      </c>
+      <c r="B38" t="s">
         <v>25</v>
-      </c>
-      <c r="F37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20250813</v>
+      </c>
+      <c r="B39" t="s">
         <v>25</v>
-      </c>
-      <c r="F38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B39" t="s">
-        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>45882</v>
+      <c r="A40">
+        <v>20250813</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20250813</v>
+      </c>
+      <c r="B41" t="s">
         <v>25</v>
-      </c>
-      <c r="F40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>45882</v>
+      <c r="A42">
+        <v>20250813</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20250813</v>
+      </c>
+      <c r="B43" t="s">
         <v>25</v>
-      </c>
-      <c r="F42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>45882</v>
+      <c r="A44">
+        <v>20250813</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20250813</v>
+      </c>
+      <c r="B45" t="s">
         <v>25</v>
-      </c>
-      <c r="F44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>45882</v>
+      <c r="A46">
+        <v>20250813</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>20250813</v>
+      </c>
+      <c r="B47" t="s">
         <v>25</v>
-      </c>
-      <c r="F46" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B47" t="s">
-        <v>28</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>45882</v>
+      <c r="A48">
+        <v>20250813</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20250813</v>
+      </c>
+      <c r="B49" t="s">
         <v>25</v>
-      </c>
-      <c r="F48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B49" t="s">
-        <v>28</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>45882</v>
+      <c r="A50">
+        <v>20250813</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>45882</v>
+      <c r="A51">
+        <v>20250813</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>45882</v>
+      <c r="A52">
+        <v>20250813</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>45882</v>
+      <c r="A53">
+        <v>20250813</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>45882</v>
+      <c r="A54">
+        <v>20250813</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>45882</v>
+      <c r="A55">
+        <v>20250813</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>45882</v>
+      <c r="A56">
+        <v>20250813</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>45882</v>
+      <c r="A57">
+        <v>20250813</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>45882</v>
+      <c r="A58">
+        <v>20250813</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>45882</v>
+      <c r="A59">
+        <v>20250813</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>45882</v>
+      <c r="A60">
+        <v>20250813</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>45882</v>
+      <c r="A61">
+        <v>20250813</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>45882</v>
+      <c r="A62">
+        <v>20250813</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>45882</v>
+      <c r="A63">
+        <v>20250813</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>45882</v>
+      <c r="A64">
+        <v>20250813</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>45882</v>
+      <c r="A65">
+        <v>20250813</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>45882</v>
+      <c r="A66">
+        <v>20250813</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>45882</v>
+      <c r="A67">
+        <v>20250813</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>45882</v>
+      <c r="A68">
+        <v>20250813</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>45882</v>
+      <c r="A69">
+        <v>20250813</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>45882</v>
+      <c r="A70">
+        <v>20250813</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>45882</v>
+      <c r="A71">
+        <v>20250813</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>45882</v>
+      <c r="A72">
+        <v>20250813</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>45882</v>
+      <c r="A73">
+        <v>20250813</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>45882</v>
+      <c r="A74">
+        <v>20250813</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>45882</v>
+      <c r="A75">
+        <v>20250813</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>45882</v>
+      <c r="A76">
+        <v>20250813</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>45882</v>
+      <c r="A77">
+        <v>20250813</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>45882</v>
+      <c r="A78">
+        <v>20250813</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>45882</v>
+      <c r="A79">
+        <v>20250813</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>45882</v>
+      <c r="A80">
+        <v>20250813</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>45882</v>
+      <c r="A81">
+        <v>20250813</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>45882</v>
+      <c r="A82">
+        <v>20250813</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>45882</v>
+      <c r="A83">
+        <v>20250813</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>45882</v>
+      <c r="A84">
+        <v>20250813</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>45882</v>
+      <c r="A85">
+        <v>20250813</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>45882</v>
+      <c r="A86">
+        <v>20250813</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>45882</v>
+      <c r="A87">
+        <v>20250813</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>45882</v>
+      <c r="A88">
+        <v>20250813</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E88" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>45882</v>
+      <c r="A89">
+        <v>20250813</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>45882</v>
+      <c r="A90">
+        <v>20250813</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>45882</v>
+      <c r="A91">
+        <v>20250813</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>45882</v>
+      <c r="A92">
+        <v>20250813</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>45882</v>
+      <c r="A93">
+        <v>20250813</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C93" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>45882</v>
+      <c r="A94">
+        <v>20250813</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>45882</v>
+      <c r="A95">
+        <v>20250813</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>45882</v>
+      <c r="A96">
+        <v>20250813</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>45882</v>
+      <c r="A97">
+        <v>20250813</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E97" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
-        <v>45882</v>
+      <c r="A98">
+        <v>20250813</v>
       </c>
       <c r="B98" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>45882</v>
+      <c r="A99">
+        <v>20250813</v>
       </c>
       <c r="B99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
-        <v>45882</v>
+      <c r="A100">
+        <v>20250813</v>
       </c>
       <c r="B100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
-        <v>45882</v>
+      <c r="A101">
+        <v>20250813</v>
       </c>
       <c r="B101" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
-        <v>45882</v>
+      <c r="A102">
+        <v>20250813</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
-        <v>45882</v>
+      <c r="A103">
+        <v>20250813</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>45882</v>
+      <c r="A104">
+        <v>20250813</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
-        <v>45882</v>
+      <c r="A105">
+        <v>20250813</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>45882</v>
+      <c r="A106">
+        <v>20250813</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
-        <v>45882</v>
+      <c r="A107">
+        <v>20250813</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
-        <v>45882</v>
+      <c r="A108">
+        <v>20250813</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>45882</v>
+      <c r="A109">
+        <v>20250813</v>
       </c>
       <c r="B109" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
-        <v>45882</v>
+      <c r="A110">
+        <v>20250813</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
-        <v>45882</v>
+      <c r="A111">
+        <v>20250813</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
-        <v>45882</v>
+      <c r="A112">
+        <v>20250813</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
-        <v>45882</v>
+      <c r="A113">
+        <v>20250813</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E113" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="2">
-        <v>45882</v>
+      <c r="A114">
+        <v>20250813</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
-        <v>45882</v>
+      <c r="A115">
+        <v>20250813</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E115" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="2">
-        <v>45882</v>
+      <c r="A116">
+        <v>20250813</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C116" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="2">
-        <v>45882</v>
+      <c r="A117">
+        <v>20250813</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="2">
-        <v>45882</v>
+      <c r="A118">
+        <v>20250813</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E118" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="2">
-        <v>45882</v>
+      <c r="A119">
+        <v>20250813</v>
       </c>
       <c r="B119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E119" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
-        <v>45882</v>
+      <c r="A120">
+        <v>20250813</v>
       </c>
       <c r="B120" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>45882</v>
+      <c r="A121">
+        <v>20250813</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E121" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>45882</v>
+      <c r="A122">
+        <v>20250813</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E122" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>45882</v>
+      <c r="A123">
+        <v>20250813</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E123" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
-        <v>45882</v>
+      <c r="A124">
+        <v>20250813</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>45882</v>
+      <c r="A125">
+        <v>20250813</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
-        <v>45882</v>
+      <c r="A126">
+        <v>20250813</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C126" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
-        <v>45882</v>
+      <c r="A127">
+        <v>20250813</v>
       </c>
       <c r="B127" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
-        <v>45882</v>
+      <c r="A128">
+        <v>20250813</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E128" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
-        <v>45882</v>
+      <c r="A129">
+        <v>20250813</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>45882</v>
+      <c r="A130">
+        <v>20250813</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>45882</v>
+      <c r="A131">
+        <v>20250813</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
-        <v>45882</v>
+      <c r="A132">
+        <v>20250813</v>
       </c>
       <c r="B132" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E132" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>45882</v>
+      <c r="A133">
+        <v>20250813</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E133" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>45882</v>
+      <c r="A134">
+        <v>20250813</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>45882</v>
+      <c r="A135">
+        <v>20250813</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="2">
-        <v>45882</v>
+      <c r="A136">
+        <v>20250813</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
-        <v>45882</v>
+      <c r="A137">
+        <v>20250813</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E137" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>45882</v>
+      <c r="A138">
+        <v>20250813</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C138" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E138" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>45882</v>
+      <c r="A139">
+        <v>20250813</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C139" t="s">
         <v>10</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>45882</v>
+      <c r="A140">
+        <v>20250813</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E140" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>45882</v>
+      <c r="A141">
+        <v>20250813</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E141" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F141" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>45882</v>
+      <c r="A142">
+        <v>20250813</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E142" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>45882</v>
+      <c r="A143">
+        <v>20250813</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E143" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F143" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>45882</v>
+      <c r="A144">
+        <v>20250813</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C144" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>45882</v>
+      <c r="A145">
+        <v>20250813</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C145" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E145" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F145" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>45882</v>
+      <c r="A146">
+        <v>20250813</v>
       </c>
       <c r="B146" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E146" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>45882</v>
+      <c r="A147">
+        <v>20250813</v>
       </c>
       <c r="B147" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E147" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F147" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
-        <v>45882</v>
+      <c r="A148">
+        <v>20250813</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E148" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
-        <v>45882</v>
+      <c r="A149">
+        <v>20250813</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E149" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F149" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
-        <v>45882</v>
+      <c r="A150">
+        <v>20250813</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C150" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E150" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
-        <v>45882</v>
+      <c r="A151">
+        <v>20250813</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E151" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F151" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
-        <v>45882</v>
+      <c r="A152">
+        <v>20250813</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F152" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>45882</v>
+      <c r="A153">
+        <v>20250813</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C153" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E153" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F153" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>45882</v>
+      <c r="A154">
+        <v>20250813</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C154" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E154" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
-        <v>45882</v>
+      <c r="A155">
+        <v>20250813</v>
       </c>
       <c r="B155" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E155" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F155" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
-        <v>45882</v>
+      <c r="A156">
+        <v>20250813</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E156" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
-        <v>45882</v>
+      <c r="A157">
+        <v>20250813</v>
       </c>
       <c r="B157" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C157" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E157" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F157" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
-        <v>45882</v>
+      <c r="A158">
+        <v>20250813</v>
       </c>
       <c r="B158" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
-        <v>45882</v>
+      <c r="A159">
+        <v>20250813</v>
       </c>
       <c r="B159" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F159" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>45882</v>
+      <c r="A160">
+        <v>20250813</v>
       </c>
       <c r="B160" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E160" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
-        <v>45882</v>
+      <c r="A161">
+        <v>20250813</v>
       </c>
       <c r="B161" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E161" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F161" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
-        <v>45882</v>
+      <c r="A162">
+        <v>20250813</v>
       </c>
       <c r="B162" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C162" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E162" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="2">
-        <v>45882</v>
+      <c r="A163">
+        <v>20250813</v>
       </c>
       <c r="B163" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C163" t="s">
         <v>10</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E163" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F163" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
-        <v>45882</v>
+      <c r="A164">
+        <v>20250813</v>
       </c>
       <c r="B164" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C164" t="s">
         <v>11</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E164" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="2">
-        <v>45882</v>
+      <c r="A165">
+        <v>20250813</v>
       </c>
       <c r="B165" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C165" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E165" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F165" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
-        <v>45882</v>
+      <c r="A166">
+        <v>20250813</v>
       </c>
       <c r="B166" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C166" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E166" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="2">
-        <v>45882</v>
+      <c r="A167">
+        <v>20250813</v>
       </c>
       <c r="B167" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C167" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E167" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F167" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="2">
-        <v>45882</v>
+      <c r="A168">
+        <v>20250813</v>
       </c>
       <c r="B168" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C168" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E168" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F168" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
-        <v>45882</v>
+      <c r="A169">
+        <v>20250813</v>
       </c>
       <c r="B169" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C169" t="s">
         <v>16</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E169" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F169" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="2">
-        <v>45882</v>
+      <c r="A170">
+        <v>20250813</v>
       </c>
       <c r="B170" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E170" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="2">
-        <v>45882</v>
+      <c r="A171">
+        <v>20250813</v>
       </c>
       <c r="B171" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E171" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F171" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
-        <v>45882</v>
+      <c r="A172">
+        <v>20250813</v>
       </c>
       <c r="B172" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E172" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F172" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
-        <v>45882</v>
+      <c r="A173">
+        <v>20250813</v>
       </c>
       <c r="B173" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C173" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E173" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F173" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
-        <v>45882</v>
+      <c r="A174">
+        <v>20250813</v>
       </c>
       <c r="B174" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E174" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F174" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="2">
-        <v>45882</v>
+      <c r="A175">
+        <v>20250813</v>
       </c>
       <c r="B175" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C175" t="s">
         <v>10</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E175" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F175" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
-        <v>45882</v>
+      <c r="A176">
+        <v>20250813</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C176" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E176" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="2">
-        <v>45882</v>
+      <c r="A177">
+        <v>20250813</v>
       </c>
       <c r="B177" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E177" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F177" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
-        <v>45882</v>
+      <c r="A178">
+        <v>20250813</v>
       </c>
       <c r="B178" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E178" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F178" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="2">
-        <v>45882</v>
+      <c r="A179">
+        <v>20250813</v>
       </c>
       <c r="B179" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C179" t="s">
         <v>15</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E179" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F179" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>45882</v>
+      <c r="A180">
+        <v>20250813</v>
       </c>
       <c r="B180" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C180" t="s">
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E180" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F180" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="2">
-        <v>45882</v>
+      <c r="A181">
+        <v>20250813</v>
       </c>
       <c r="B181" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E181" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F181" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>45882</v>
+      <c r="A182">
+        <v>20250813</v>
       </c>
       <c r="B182" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E182" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F182" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="2">
-        <v>45882</v>
+      <c r="A183">
+        <v>20250813</v>
       </c>
       <c r="B183" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E183" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F183" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="2">
-        <v>45882</v>
+      <c r="A184">
+        <v>20250813</v>
       </c>
       <c r="B184" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E184" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F184" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="2">
-        <v>45882</v>
+      <c r="A185">
+        <v>20250813</v>
       </c>
       <c r="B185" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C185" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E185" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F185" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
-        <v>45882</v>
+      <c r="A186">
+        <v>20250813</v>
       </c>
       <c r="B186" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E186" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F186" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
-        <v>45882</v>
+      <c r="A187">
+        <v>20250813</v>
       </c>
       <c r="B187" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C187" t="s">
         <v>10</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E187" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F187" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="2">
-        <v>45882</v>
+      <c r="A188">
+        <v>20250813</v>
       </c>
       <c r="B188" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C188" t="s">
         <v>11</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E188" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F188" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="2">
-        <v>45882</v>
+      <c r="A189">
+        <v>20250813</v>
       </c>
       <c r="B189" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E189" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F189" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="2">
-        <v>45882</v>
+      <c r="A190">
+        <v>20250813</v>
       </c>
       <c r="B190" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E190" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F190" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="2">
-        <v>45882</v>
+      <c r="A191">
+        <v>20250813</v>
       </c>
       <c r="B191" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C191" t="s">
         <v>15</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E191" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F191" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="2">
-        <v>45882</v>
+      <c r="A192">
+        <v>20250813</v>
       </c>
       <c r="B192" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C192" t="s">
         <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E192" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F192" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="2">
-        <v>45882</v>
+      <c r="A193">
+        <v>20250813</v>
       </c>
       <c r="B193" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C193" t="s">
         <v>16</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E193" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F193" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="2">
-        <v>45882</v>
+      <c r="A194">
+        <v>20250813</v>
       </c>
       <c r="B194" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E194" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F194" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="2">
-        <v>45882</v>
+      <c r="A195">
+        <v>20250813</v>
       </c>
       <c r="B195" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E195" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F195" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="2">
-        <v>45882</v>
+      <c r="A196">
+        <v>20250813</v>
       </c>
       <c r="B196" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E196" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F196" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="2">
-        <v>45882</v>
+      <c r="A197">
+        <v>20250813</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C197" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E197" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F197" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="2">
-        <v>45882</v>
+      <c r="A198">
+        <v>20250813</v>
       </c>
       <c r="B198" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E198" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F198" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="2">
-        <v>45882</v>
+      <c r="A199">
+        <v>20250813</v>
       </c>
       <c r="B199" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C199" t="s">
         <v>10</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E199" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F199" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="2">
-        <v>45882</v>
+      <c r="A200">
+        <v>20250813</v>
       </c>
       <c r="B200" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C200" t="s">
         <v>11</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E200" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F200" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="2">
-        <v>45882</v>
+      <c r="A201">
+        <v>20250813</v>
       </c>
       <c r="B201" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C201" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E201" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F201" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="2">
-        <v>45882</v>
+      <c r="A202">
+        <v>20250813</v>
       </c>
       <c r="B202" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E202" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F202" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="2">
-        <v>45882</v>
+      <c r="A203">
+        <v>20250813</v>
       </c>
       <c r="B203" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C203" t="s">
         <v>15</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E203" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F203" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="2">
-        <v>45882</v>
+      <c r="A204">
+        <v>20250813</v>
       </c>
       <c r="B204" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E204" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F204" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="2">
-        <v>45882</v>
+      <c r="A205">
+        <v>20250813</v>
       </c>
       <c r="B205" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C205" t="s">
         <v>16</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E205" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F205" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="2">
-        <v>45882</v>
+      <c r="A206">
+        <v>20250813</v>
       </c>
       <c r="B206" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E206" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F206" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="2">
-        <v>45882</v>
+      <c r="A207">
+        <v>20250813</v>
       </c>
       <c r="B207" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E207" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F207" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="2">
-        <v>45882</v>
+      <c r="A208">
+        <v>20250813</v>
       </c>
       <c r="B208" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E208" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F208" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="2">
-        <v>45882</v>
+      <c r="A209">
+        <v>20250813</v>
       </c>
       <c r="B209" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C209" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E209" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F209" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="2">
-        <v>45882</v>
+      <c r="A210">
+        <v>20250813</v>
       </c>
       <c r="B210" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C210" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E210" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F210" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="2">
-        <v>45882</v>
+      <c r="A211">
+        <v>20250813</v>
       </c>
       <c r="B211" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C211" t="s">
         <v>10</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E211" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F211" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="2">
-        <v>45882</v>
+      <c r="A212">
+        <v>20250813</v>
       </c>
       <c r="B212" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C212" t="s">
         <v>11</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E212" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F212" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="2">
-        <v>45882</v>
+      <c r="A213">
+        <v>20250813</v>
       </c>
       <c r="B213" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C213" t="s">
         <v>12</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E213" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F213" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="2">
-        <v>45882</v>
+      <c r="A214">
+        <v>20250813</v>
       </c>
       <c r="B214" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E214" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F214" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="2">
-        <v>45882</v>
+      <c r="A215">
+        <v>20250813</v>
       </c>
       <c r="B215" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C215" t="s">
         <v>15</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E215" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F215" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="2">
-        <v>45882</v>
+      <c r="A216">
+        <v>20250813</v>
       </c>
       <c r="B216" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E216" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F216" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="2">
-        <v>45882</v>
+      <c r="A217">
+        <v>20250813</v>
       </c>
       <c r="B217" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C217" t="s">
         <v>16</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E217" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F217" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="2">
-        <v>45882</v>
+      <c r="A218">
+        <v>20250813</v>
       </c>
       <c r="B218" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E218" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F218" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="2">
-        <v>45882</v>
+      <c r="A219">
+        <v>20250813</v>
       </c>
       <c r="B219" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E219" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F219" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="2">
-        <v>45882</v>
+      <c r="A220">
+        <v>20250813</v>
       </c>
       <c r="B220" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E220" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F220" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="2">
-        <v>45882</v>
+      <c r="A221">
+        <v>20250813</v>
       </c>
       <c r="B221" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C221" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E221" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F221" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="2">
-        <v>45882</v>
+      <c r="A222">
+        <v>20250813</v>
       </c>
       <c r="B222" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E222" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F222" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
-        <v>45882</v>
+      <c r="A223">
+        <v>20250813</v>
       </c>
       <c r="B223" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C223" t="s">
         <v>10</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E223" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F223" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
-        <v>45882</v>
+      <c r="A224">
+        <v>20250813</v>
       </c>
       <c r="B224" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C224" t="s">
         <v>11</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E224" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F224" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="2">
-        <v>45882</v>
+      <c r="A225">
+        <v>20250813</v>
       </c>
       <c r="B225" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C225" t="s">
         <v>12</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E225" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F225" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="2">
-        <v>45882</v>
+      <c r="A226">
+        <v>20250813</v>
       </c>
       <c r="B226" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E226" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F226" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="2">
-        <v>45882</v>
+      <c r="A227">
+        <v>20250813</v>
       </c>
       <c r="B227" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C227" t="s">
         <v>15</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E227" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F227" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="2">
-        <v>45882</v>
+      <c r="A228">
+        <v>20250813</v>
       </c>
       <c r="B228" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E228" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F228" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="2">
-        <v>45882</v>
+      <c r="A229">
+        <v>20250813</v>
       </c>
       <c r="B229" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C229" t="s">
         <v>16</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E229" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F229" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="2">
-        <v>45882</v>
+      <c r="A230">
+        <v>20250813</v>
       </c>
       <c r="B230" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E230" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F230" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="2">
-        <v>45882</v>
+      <c r="A231">
+        <v>20250813</v>
       </c>
       <c r="B231" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E231" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F231" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="2">
-        <v>45882</v>
+      <c r="A232">
+        <v>20250813</v>
       </c>
       <c r="B232" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E232" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F232" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="2">
-        <v>45882</v>
+      <c r="A233">
+        <v>20250813</v>
       </c>
       <c r="B233" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C233" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E233" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F233" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="2">
-        <v>45882</v>
+      <c r="A234">
+        <v>20250813</v>
       </c>
       <c r="B234" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E234" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F234" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="2">
-        <v>45882</v>
+      <c r="A235">
+        <v>20250813</v>
       </c>
       <c r="B235" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C235" t="s">
         <v>10</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E235" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F235" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="2">
-        <v>45882</v>
+      <c r="A236">
+        <v>20250813</v>
       </c>
       <c r="B236" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C236" t="s">
         <v>11</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E236" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F236" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="2">
-        <v>45882</v>
+      <c r="A237">
+        <v>20250813</v>
       </c>
       <c r="B237" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E237" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F237" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="2">
-        <v>45882</v>
+      <c r="A238">
+        <v>20250813</v>
       </c>
       <c r="B238" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C238" t="s">
         <v>13</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E238" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F238" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="2">
-        <v>45882</v>
+      <c r="A239">
+        <v>20250813</v>
       </c>
       <c r="B239" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C239" t="s">
         <v>15</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E239" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F239" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="2">
-        <v>45882</v>
+      <c r="A240">
+        <v>20250813</v>
       </c>
       <c r="B240" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C240" t="s">
         <v>14</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E240" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F240" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="2">
-        <v>45882</v>
+      <c r="A241">
+        <v>20250813</v>
       </c>
       <c r="B241" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C241" t="s">
         <v>16</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E241" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F241" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="2">
-        <v>45882</v>
+      <c r="A242">
+        <v>20250813</v>
       </c>
       <c r="B242" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E242" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F242" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="2">
-        <v>45882</v>
+      <c r="A243">
+        <v>20250813</v>
       </c>
       <c r="B243" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E243" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F243" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="2">
-        <v>45882</v>
+      <c r="A244">
+        <v>20250813</v>
       </c>
       <c r="B244" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E244" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F244" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="2">
-        <v>45882</v>
+      <c r="A245">
+        <v>20250813</v>
       </c>
       <c r="B245" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C245" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E245" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F245" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="2">
-        <v>45882</v>
+      <c r="A246">
+        <v>20250813</v>
       </c>
       <c r="B246" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C246" t="s">
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E246" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F246" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="2">
-        <v>45882</v>
+      <c r="A247">
+        <v>20250813</v>
       </c>
       <c r="B247" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C247" t="s">
         <v>10</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E247" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F247" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="2">
-        <v>45882</v>
+      <c r="A248">
+        <v>20250813</v>
       </c>
       <c r="B248" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C248" t="s">
         <v>11</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E248" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F248" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="2">
-        <v>45882</v>
+      <c r="A249">
+        <v>20250813</v>
       </c>
       <c r="B249" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C249" t="s">
         <v>12</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E249" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F249" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="2">
-        <v>45882</v>
+      <c r="A250">
+        <v>20250813</v>
       </c>
       <c r="B250" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C250" t="s">
         <v>13</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E250" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F250" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="2">
-        <v>45882</v>
+      <c r="A251">
+        <v>20250813</v>
       </c>
       <c r="B251" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C251" t="s">
         <v>15</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E251" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F251" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="2">
-        <v>45882</v>
+      <c r="A252">
+        <v>20250813</v>
       </c>
       <c r="B252" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C252" t="s">
         <v>14</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E252" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F252" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="2">
-        <v>45882</v>
+      <c r="A253">
+        <v>20250813</v>
       </c>
       <c r="B253" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C253" t="s">
         <v>16</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E253" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F253" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="2">
-        <v>45882</v>
+      <c r="A254">
+        <v>20250813</v>
       </c>
       <c r="B254" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E254" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F254" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="2">
-        <v>45882</v>
+      <c r="A255">
+        <v>20250813</v>
       </c>
       <c r="B255" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C255" t="s">
         <v>6</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E255" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F255" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="2">
-        <v>45882</v>
+      <c r="A256">
+        <v>20250813</v>
       </c>
       <c r="B256" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E256" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F256" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="2">
-        <v>45882</v>
+      <c r="A257">
+        <v>20250813</v>
       </c>
       <c r="B257" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C257" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E257" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F257" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="2">
-        <v>45882</v>
+      <c r="A258">
+        <v>20250813</v>
       </c>
       <c r="B258" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C258" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E258" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F258" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="2">
-        <v>45882</v>
+      <c r="A259">
+        <v>20250813</v>
       </c>
       <c r="B259" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C259" t="s">
         <v>10</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E259" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F259" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="2">
-        <v>45882</v>
+      <c r="A260">
+        <v>20250813</v>
       </c>
       <c r="B260" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C260" t="s">
         <v>11</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E260" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F260" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="2">
-        <v>45882</v>
+      <c r="A261">
+        <v>20250813</v>
       </c>
       <c r="B261" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C261" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E261" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F261" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="2">
-        <v>45882</v>
+      <c r="A262">
+        <v>20250813</v>
       </c>
       <c r="B262" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C262" t="s">
         <v>13</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E262" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F262" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="2">
-        <v>45882</v>
+      <c r="A263">
+        <v>20250813</v>
       </c>
       <c r="B263" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C263" t="s">
         <v>15</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E263" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F263" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="2">
-        <v>45882</v>
+      <c r="A264">
+        <v>20250813</v>
       </c>
       <c r="B264" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C264" t="s">
         <v>14</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E264" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F264" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="2">
-        <v>45882</v>
+      <c r="A265">
+        <v>20250813</v>
       </c>
       <c r="B265" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C265" t="s">
         <v>16</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E265" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F265" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="2">
-        <v>45882</v>
+      <c r="A266">
+        <v>20250813</v>
       </c>
       <c r="B266" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E266" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F266" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="2">
-        <v>45882</v>
+      <c r="A267">
+        <v>20250813</v>
       </c>
       <c r="B267" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C267" t="s">
         <v>6</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E267" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F267" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="2">
-        <v>45882</v>
+      <c r="A268">
+        <v>20250813</v>
       </c>
       <c r="B268" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E268" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F268" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="2">
-        <v>45882</v>
+      <c r="A269">
+        <v>20250813</v>
       </c>
       <c r="B269" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C269" t="s">
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E269" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F269" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="2">
-        <v>45882</v>
+      <c r="A270">
+        <v>20250813</v>
       </c>
       <c r="B270" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C270" t="s">
         <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E270" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F270" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="2">
-        <v>45882</v>
+      <c r="A271">
+        <v>20250813</v>
       </c>
       <c r="B271" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C271" t="s">
         <v>10</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E271" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F271" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="2">
-        <v>45882</v>
+      <c r="A272">
+        <v>20250813</v>
       </c>
       <c r="B272" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C272" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E272" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F272" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>20250813</v>
       </c>
       <c r="B273" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C273" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E273" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F273" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" s="2">
-        <v>45882</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>20250813</v>
       </c>
       <c r="B274" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C274" t="s">
+        <v>15</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E274" t="s">
+        <v>22</v>
+      </c>
+      <c r="F274" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>20250813</v>
+      </c>
+      <c r="B275" t="s">
+        <v>44</v>
+      </c>
+      <c r="C275" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E275" t="s">
+        <v>21</v>
+      </c>
+      <c r="F275" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>20250813</v>
+      </c>
+      <c r="B276" t="s">
+        <v>44</v>
+      </c>
+      <c r="C276" t="s">
+        <v>16</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E276" t="s">
+        <v>22</v>
+      </c>
+      <c r="F276" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>20250813</v>
+      </c>
+      <c r="B277" t="s">
+        <v>45</v>
+      </c>
+      <c r="C277" t="s">
+        <v>5</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E277" t="s">
+        <v>22</v>
+      </c>
+      <c r="F277" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>20250813</v>
+      </c>
+      <c r="B278" t="s">
+        <v>45</v>
+      </c>
+      <c r="C278" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E278" t="s">
+        <v>22</v>
+      </c>
+      <c r="F278" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>20250813</v>
+      </c>
+      <c r="B279" t="s">
+        <v>45</v>
+      </c>
+      <c r="C279" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E279" t="s">
+        <v>21</v>
+      </c>
+      <c r="F279" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>20250813</v>
+      </c>
+      <c r="B280" t="s">
+        <v>45</v>
+      </c>
+      <c r="C280" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E280" t="s">
+        <v>22</v>
+      </c>
+      <c r="F280" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>20250813</v>
+      </c>
+      <c r="B281" t="s">
+        <v>45</v>
+      </c>
+      <c r="C281" t="s">
+        <v>10</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281" t="s">
+        <v>21</v>
+      </c>
+      <c r="F281" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>20250813</v>
+      </c>
+      <c r="B282" t="s">
+        <v>45</v>
+      </c>
+      <c r="C282" t="s">
         <v>13</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E274" t="s">
-        <v>24</v>
-      </c>
-      <c r="F274" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" ht="22" x14ac:dyDescent="0.3">
-      <c r="A275" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B275" t="s">
-        <v>47</v>
-      </c>
-      <c r="C275" t="s">
+      <c r="D282" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E282" t="s">
+        <v>22</v>
+      </c>
+      <c r="F282" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>20250813</v>
+      </c>
+      <c r="B283" t="s">
+        <v>45</v>
+      </c>
+      <c r="C283" t="s">
         <v>15</v>
       </c>
-      <c r="D275" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E275" t="s">
-        <v>25</v>
-      </c>
-      <c r="F275" t="s">
-        <v>23</v>
-      </c>
-      <c r="H275" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B276" t="s">
-        <v>47</v>
-      </c>
-      <c r="C276" t="s">
-        <v>14</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E276" t="s">
-        <v>24</v>
-      </c>
-      <c r="F276" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A277" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B277" t="s">
-        <v>47</v>
-      </c>
-      <c r="C277" t="s">
-        <v>16</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E277" t="s">
-        <v>25</v>
-      </c>
-      <c r="F277" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B278" t="s">
-        <v>48</v>
-      </c>
-      <c r="C278" t="s">
-        <v>5</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E278" t="s">
-        <v>25</v>
-      </c>
-      <c r="F278" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B279" t="s">
-        <v>48</v>
-      </c>
-      <c r="C279" t="s">
-        <v>6</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E279" t="s">
-        <v>24</v>
-      </c>
-      <c r="F279" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B280" t="s">
-        <v>48</v>
-      </c>
-      <c r="C280" t="s">
-        <v>7</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E280" t="s">
-        <v>25</v>
-      </c>
-      <c r="F280" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B281" t="s">
-        <v>48</v>
-      </c>
-      <c r="C281" t="s">
-        <v>8</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E281" t="s">
-        <v>24</v>
-      </c>
-      <c r="F281" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B282" t="s">
-        <v>48</v>
-      </c>
-      <c r="C282" t="s">
-        <v>9</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E282" t="s">
-        <v>25</v>
-      </c>
-      <c r="F282" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B283" t="s">
-        <v>48</v>
-      </c>
-      <c r="C283" t="s">
-        <v>10</v>
-      </c>
       <c r="D283" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E283" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F283" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B284" t="s">
-        <v>48</v>
-      </c>
-      <c r="C284" t="s">
-        <v>11</v>
-      </c>
-      <c r="D284" s="2"/>
-      <c r="G284" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B285" t="s">
-        <v>48</v>
-      </c>
-      <c r="C285" t="s">
-        <v>12</v>
-      </c>
-      <c r="D285" s="2"/>
-      <c r="G285" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A286" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B286" t="s">
-        <v>48</v>
-      </c>
-      <c r="C286" t="s">
-        <v>13</v>
-      </c>
-      <c r="D286" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E286" t="s">
-        <v>25</v>
-      </c>
-      <c r="F286" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B287" t="s">
-        <v>48</v>
-      </c>
-      <c r="C287" t="s">
-        <v>15</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E287" t="s">
-        <v>24</v>
-      </c>
-      <c r="F287" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B288" t="s">
-        <v>48</v>
-      </c>
-      <c r="C288" t="s">
-        <v>14</v>
-      </c>
-      <c r="D288" s="2"/>
-      <c r="G288" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B289" t="s">
-        <v>48</v>
-      </c>
-      <c r="C289" t="s">
-        <v>16</v>
-      </c>
-      <c r="D289" s="2"/>
-      <c r="G289" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="1154" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1154" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1155" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1155" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1156" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1156" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1157" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1157" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1158" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1158" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1159" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1159" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1160" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1160" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1161" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1161" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1162" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1162" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1163" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1163" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1164" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1164" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1165" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1165" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1166" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1166" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1167" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1168" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1168" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1169" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1169" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1170" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1170" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1171" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1171" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1172" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1172" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1173" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1173" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1174" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1174" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1175" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1175" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1176" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1177" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1177" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1178" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1178" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1179" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1179" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1180" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1180" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1181" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1181" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1182" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1182" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1183" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1183" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1184" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1184" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1185" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1185" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1186" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1186" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1187" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1187" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1188" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1188" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1189" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1189" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1190" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1190" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1191" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1191" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1192" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1192" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1193" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1193" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1194" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1194" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1195" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1195" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1196" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1196" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1197" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1197" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1198" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1198" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1199" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1199" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1200" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1200" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="1201" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H1201" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1244" s="1"/>
+      <c r="B1244" s="1"/>
+      <c r="C1244" s="1"/>
+      <c r="D1244" s="1"/>
+      <c r="E1244" s="1"/>
+      <c r="F1244" s="1"/>
+    </row>
+    <row r="1245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1245" s="1"/>
+      <c r="B1245" s="1"/>
+      <c r="C1245" s="1"/>
+      <c r="D1245" s="1"/>
+      <c r="E1245" s="1"/>
+      <c r="F1245" s="1"/>
+    </row>
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1246" s="1"/>
+      <c r="B1246" s="1"/>
+      <c r="C1246" s="1"/>
+      <c r="D1246" s="1"/>
+      <c r="E1246" s="1"/>
+      <c r="F1246" s="1"/>
+    </row>
+    <row r="1247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1247" s="1"/>
+      <c r="B1247" s="1"/>
+      <c r="C1247" s="1"/>
+      <c r="D1247" s="1"/>
+      <c r="E1247" s="1"/>
+      <c r="F1247" s="1"/>
+    </row>
+    <row r="1248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1248" s="1"/>
+      <c r="B1248" s="1"/>
+      <c r="C1248" s="1"/>
+      <c r="D1248" s="1"/>
+      <c r="E1248" s="1"/>
+      <c r="F1248" s="1"/>
+    </row>
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1249" s="1"/>
+      <c r="B1249" s="1"/>
+      <c r="C1249" s="1"/>
+      <c r="D1249" s="1"/>
+      <c r="E1249" s="1"/>
+      <c r="F1249" s="1"/>
     </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1250" s="1"/>
@@ -8513,7 +8191,7 @@
       <c r="E1488" s="1"/>
       <c r="F1488" s="1"/>
     </row>
-    <row r="1489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1489" s="1"/>
       <c r="B1489" s="1"/>
       <c r="C1489" s="1"/>
@@ -8521,16 +8199,15 @@
       <c r="E1489" s="1"/>
       <c r="F1489" s="1"/>
     </row>
-    <row r="1490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1490" s="1"/>
       <c r="B1490" s="1"/>
       <c r="C1490" s="1"/>
       <c r="D1490" s="1"/>
       <c r="E1490" s="1"/>
       <c r="F1490" s="1"/>
-      <c r="H1490" s="1"/>
-    </row>
-    <row r="1491" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1491" s="1"/>
       <c r="B1491" s="1"/>
       <c r="C1491" s="1"/>
@@ -8538,7 +8215,7 @@
       <c r="E1491" s="1"/>
       <c r="F1491" s="1"/>
     </row>
-    <row r="1492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1492" s="1"/>
       <c r="B1492" s="1"/>
       <c r="C1492" s="1"/>
@@ -8546,7 +8223,7 @@
       <c r="E1492" s="1"/>
       <c r="F1492" s="1"/>
     </row>
-    <row r="1493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1493" s="1"/>
       <c r="B1493" s="1"/>
       <c r="C1493" s="1"/>
@@ -8554,7 +8231,7 @@
       <c r="E1493" s="1"/>
       <c r="F1493" s="1"/>
     </row>
-    <row r="1494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1494" s="1"/>
       <c r="B1494" s="1"/>
       <c r="C1494" s="1"/>
@@ -8562,7 +8239,7 @@
       <c r="E1494" s="1"/>
       <c r="F1494" s="1"/>
     </row>
-    <row r="1495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1495" s="1"/>
       <c r="B1495" s="1"/>
       <c r="C1495" s="1"/>
@@ -8570,7 +8247,7 @@
       <c r="E1495" s="1"/>
       <c r="F1495" s="1"/>
     </row>
-    <row r="1496" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1496" s="1"/>
       <c r="B1496" s="1"/>
       <c r="C1496" s="1"/>
@@ -8578,7 +8255,7 @@
       <c r="E1496" s="1"/>
       <c r="F1496" s="1"/>
     </row>
-    <row r="1497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1497" s="1"/>
       <c r="B1497" s="1"/>
       <c r="C1497" s="1"/>
@@ -8586,7 +8263,7 @@
       <c r="E1497" s="1"/>
       <c r="F1497" s="1"/>
     </row>
-    <row r="1498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1498" s="1"/>
       <c r="B1498" s="1"/>
       <c r="C1498" s="1"/>
@@ -8594,7 +8271,7 @@
       <c r="E1498" s="1"/>
       <c r="F1498" s="1"/>
     </row>
-    <row r="1499" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1499" s="1"/>
       <c r="B1499" s="1"/>
       <c r="C1499" s="1"/>
@@ -8602,7 +8279,7 @@
       <c r="E1499" s="1"/>
       <c r="F1499" s="1"/>
     </row>
-    <row r="1500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1500" s="1"/>
       <c r="B1500" s="1"/>
       <c r="C1500" s="1"/>
@@ -8610,7 +8287,7 @@
       <c r="E1500" s="1"/>
       <c r="F1500" s="1"/>
     </row>
-    <row r="1501" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1501" s="1"/>
       <c r="B1501" s="1"/>
       <c r="C1501" s="1"/>
@@ -8618,7 +8295,7 @@
       <c r="E1501" s="1"/>
       <c r="F1501" s="1"/>
     </row>
-    <row r="1502" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1502" s="1"/>
       <c r="B1502" s="1"/>
       <c r="C1502" s="1"/>
@@ -8626,7 +8303,7 @@
       <c r="E1502" s="1"/>
       <c r="F1502" s="1"/>
     </row>
-    <row r="1503" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1503" s="1"/>
       <c r="B1503" s="1"/>
       <c r="C1503" s="1"/>
@@ -8634,7 +8311,7 @@
       <c r="E1503" s="1"/>
       <c r="F1503" s="1"/>
     </row>
-    <row r="1504" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1504" s="1"/>
       <c r="B1504" s="1"/>
       <c r="C1504" s="1"/>
@@ -10394,56 +10071,8 @@
       <c r="E1723" s="1"/>
       <c r="F1723" s="1"/>
     </row>
-    <row r="1724" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1724" s="1"/>
-      <c r="B1724" s="1"/>
-      <c r="C1724" s="1"/>
-      <c r="D1724" s="1"/>
-      <c r="E1724" s="1"/>
-      <c r="F1724" s="1"/>
-    </row>
-    <row r="1725" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1725" s="1"/>
-      <c r="B1725" s="1"/>
-      <c r="C1725" s="1"/>
-      <c r="D1725" s="1"/>
-      <c r="E1725" s="1"/>
-      <c r="F1725" s="1"/>
-    </row>
-    <row r="1726" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1726" s="1"/>
-      <c r="B1726" s="1"/>
-      <c r="C1726" s="1"/>
-      <c r="D1726" s="1"/>
-      <c r="E1726" s="1"/>
-      <c r="F1726" s="1"/>
-    </row>
-    <row r="1727" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1727" s="1"/>
-      <c r="B1727" s="1"/>
-      <c r="C1727" s="1"/>
-      <c r="D1727" s="1"/>
-      <c r="E1727" s="1"/>
-      <c r="F1727" s="1"/>
-    </row>
-    <row r="1728" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1728" s="1"/>
-      <c r="B1728" s="1"/>
-      <c r="C1728" s="1"/>
-      <c r="D1728" s="1"/>
-      <c r="E1728" s="1"/>
-      <c r="F1728" s="1"/>
-    </row>
-    <row r="1729" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1729" s="1"/>
-      <c r="B1729" s="1"/>
-      <c r="C1729" s="1"/>
-      <c r="D1729" s="1"/>
-      <c r="E1729" s="1"/>
-      <c r="F1729" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H1729">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F1729">
     <sortCondition ref="A2:A1729"/>
     <sortCondition ref="B2:B1729"/>
     <sortCondition ref="C2:C1729"/>
